--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="614">
   <si>
     <t>line|行号</t>
   </si>
@@ -3036,10 +3036,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>海马</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>虎鲨</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3093,10 +3089,6 @@
   </si>
   <si>
     <t>3dby_icon_yu65</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3253,6 +3245,26 @@
   </si>
   <si>
     <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D066</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4045,8 +4057,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4664,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>128</v>
+        <v>610</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>197</v>
@@ -4839,7 +4851,7 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH8" s="90" t="str">
         <f>VLOOKUP(C8,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -4866,7 +4878,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G9" s="85" t="s">
         <v>65</v>
@@ -4940,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH9" s="90" t="str">
         <f>VLOOKUP(C9,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -4967,7 +4979,7 @@
         <v>105</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>65</v>
@@ -5041,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="AG10" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH10" s="90" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5068,7 +5080,7 @@
         <v>557</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G11" s="85" t="s">
         <v>65</v>
@@ -5142,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH11" s="90" t="str">
         <f>VLOOKUP(C11,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5169,7 +5181,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G12" s="85" t="s">
         <v>65</v>
@@ -5243,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="AG12" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH12" s="90" t="str">
         <f>VLOOKUP(C12,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5270,7 +5282,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G13" s="85" t="s">
         <v>65</v>
@@ -5344,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH13" s="90" t="str">
         <f>VLOOKUP(C13,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5371,7 +5383,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G14" s="85" t="s">
         <v>65</v>
@@ -5445,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="AG14" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH14" s="90" t="str">
         <f>VLOOKUP(C14,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5463,13 +5475,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>259</v>
@@ -5545,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="AG15" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH15" s="90" t="str">
         <f>VLOOKUP(C15,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5566,7 +5578,7 @@
         <v>361</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E16" s="85" t="s">
         <v>558</v>
@@ -5645,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH16" s="90" t="str">
         <f>VLOOKUP(C16,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5666,7 +5678,7 @@
         <v>535</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E17" s="85" t="s">
         <v>547</v>
@@ -5675,7 +5687,7 @@
         <v>260</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H17" s="85" t="s">
         <v>81</v>
@@ -5745,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH17" s="90" t="str">
         <f>VLOOKUP(C17,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5772,7 +5784,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>249</v>
@@ -5845,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="AG18" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH18" s="90" t="str">
         <f>VLOOKUP(C18,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5869,13 +5881,13 @@
         <v>161</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G19" s="85" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H19" s="85" t="s">
         <v>83</v>
@@ -5945,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="AG19" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH19" s="90" t="str">
         <f>VLOOKUP(C19,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5963,19 +5975,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D20" s="85" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>84</v>
@@ -5999,7 +6011,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="87" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P20" s="84">
         <v>4</v>
@@ -6045,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH20" s="90" t="str">
         <f>VLOOKUP(C20,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6144,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH21" s="90" t="str">
         <f>VLOOKUP(C21,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6174,7 +6186,7 @@
         <v>267</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H22" s="93" t="s">
         <v>86</v>
@@ -6242,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH22" s="90" t="str">
         <f>VLOOKUP(C22,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6340,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH23" s="90" t="str">
         <f>VLOOKUP(C23,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6554,7 +6566,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>252</v>
@@ -6647,7 +6659,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G27" s="85" t="s">
         <v>266</v>
@@ -6721,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH27" s="90" t="str">
         <f>VLOOKUP(C27,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6823,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH28" s="90" t="str">
         <f>VLOOKUP(C28,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7787,7 +7799,7 @@
         <v>158</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>246</v>
@@ -7877,13 +7889,13 @@
         <v>219</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F40" s="96" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G40" s="96" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H40" s="96" t="s">
         <v>74</v>
@@ -7949,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="AG40" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH40" s="90" t="str">
         <f>VLOOKUP(C40,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7973,13 +7985,13 @@
         <v>179</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>237</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>247</v>
@@ -8063,19 +8075,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>245</v>
       </c>
       <c r="E42" s="96" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G42" s="96" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H42" s="96" t="s">
         <v>74</v>
@@ -8169,7 +8181,7 @@
         <v>123</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>65</v>
@@ -8261,10 +8273,10 @@
         <v>220</v>
       </c>
       <c r="E44" s="96" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F44" s="96" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G44" s="96" t="s">
         <v>248</v>
@@ -8335,7 +8347,7 @@
         <v>2</v>
       </c>
       <c r="AG44" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH44" s="90" t="str">
         <f>VLOOKUP(C44,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8365,7 +8377,7 @@
         <v>122</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>65</v>
@@ -8460,7 +8472,7 @@
         <v>92</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>65</v>
@@ -8543,7 +8555,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D47" s="96" t="s">
         <v>224</v>
@@ -8552,7 +8564,7 @@
         <v>157</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G47" s="96" t="s">
         <v>261</v>
@@ -8621,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="AG47" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH47" s="90" t="str">
         <f>VLOOKUP(C47,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8738,7 +8750,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D49" s="96" t="s">
         <v>222</v>
@@ -8816,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="AG49" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH49" s="90" t="str">
         <f>VLOOKUP(C49,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8945,7 +8957,7 @@
         <v>164</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>65</v>
@@ -9031,16 +9043,16 @@
         <v>553</v>
       </c>
       <c r="D52" s="96" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E52" s="96" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F52" s="96" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G52" s="96" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H52" s="96" t="s">
         <v>74</v>
@@ -9107,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="AG52" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH52" s="90" t="str">
         <f>VLOOKUP(C52,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9125,16 +9137,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E53" s="96" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F53" s="96" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G53" s="96" t="s">
         <v>64</v>
@@ -9204,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="AG53" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH53" s="90" t="str">
         <f>VLOOKUP(C53,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9225,10 +9237,10 @@
         <v>554</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E54" s="96" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F54" s="96" t="s">
         <v>64</v>
@@ -9237,7 +9249,7 @@
         <v>65</v>
       </c>
       <c r="H54" s="96" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I54" s="85">
         <v>0.96</v>
@@ -9302,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="AG54" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH54" s="90" t="str">
         <f>VLOOKUP(C54,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9323,13 +9335,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>555</v>
+        <v>609</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F55" s="96" t="s">
         <v>64</v>
@@ -9338,7 +9350,7 @@
         <v>65</v>
       </c>
       <c r="H55" s="96" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I55" s="85">
         <v>1.53</v>
@@ -9403,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="AG55" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH55" s="90" t="str">
         <f>VLOOKUP(C55,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9427,10 +9439,10 @@
         <v>556</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F56" s="96" t="s">
         <v>64</v>
@@ -9439,7 +9451,7 @@
         <v>64</v>
       </c>
       <c r="H56" s="96" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I56" s="85">
         <v>1.53</v>
@@ -9504,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH56" s="90" t="str">
         <f>VLOOKUP(C56,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9534,7 +9546,7 @@
         <v>48</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G57" s="72" t="s">
         <v>250</v>
@@ -10095,7 +10107,7 @@
         <v>fish3dnode/fish3d/fish/boat 1/body</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>357</v>
@@ -11062,7 +11074,7 @@
     <row r="63" spans="3:9">
       <c r="C63" s="70"/>
       <c r="D63" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="8" t="str">
@@ -11070,7 +11082,7 @@
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="3:9">
@@ -11102,7 +11114,7 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>525</v>
@@ -11611,7 +11623,7 @@
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="85" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="144" spans="5:5">
@@ -11641,7 +11653,7 @@
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="5:5">
@@ -11696,12 +11708,12 @@
     </row>
     <row r="160" spans="5:5">
       <c r="E160" s="96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="E161" s="85" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="2:5">
@@ -11744,7 +11756,7 @@
     </row>
     <row r="169" spans="2:5">
       <c r="E169" s="96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="617">
   <si>
     <t>line|行号</t>
   </si>
@@ -3265,6 +3265,18 @@
   </si>
   <si>
     <t>龙虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4058,7 +4070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4771,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D8" s="85" t="s">
         <v>198</v>
@@ -4807,7 +4819,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="P8" s="84">
         <v>1</v>
@@ -4970,13 +4982,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>212</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>596</v>
@@ -5057,7 +5069,7 @@
       </c>
       <c r="AH10" s="90" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
-        <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
+        <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="AJ10" s="90" t="s">
         <v>306</v>

--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
   <si>
     <t>line|行号</t>
   </si>
@@ -702,10 +702,6 @@
   </si>
   <si>
     <t>2,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,15</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1302,10 +1298,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D054</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1955,23 +1947,6 @@
   <si>
     <r>
       <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -3277,6 +3252,22 @@
   </si>
   <si>
     <t>锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4068,9 +4059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD52" sqref="AD52:AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4148,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4202,16 +4193,16 @@
         <v>79</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="66" customFormat="1">
@@ -4222,19 +4213,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="61" t="s">
         <v>80</v>
@@ -4284,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Z2" s="65" t="s">
         <v>26</v>
@@ -4299,14 +4290,14 @@
         <v>1.2</v>
       </c>
       <c r="AG2" s="65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH2" s="65" t="str">
         <f>VLOOKUP(C2,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/x_0001 1/x_0001 2</v>
       </c>
       <c r="AJ2" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="66" customFormat="1">
@@ -4317,13 +4308,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>67</v>
@@ -4379,7 +4370,7 @@
         <v>0.8</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Z3" s="65" t="s">
         <v>26</v>
@@ -4398,7 +4389,7 @@
         <v>fish3d/x_0002 1/x_0002 2</v>
       </c>
       <c r="AJ3" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="66" customFormat="1">
@@ -4409,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>66</v>
@@ -4471,7 +4462,7 @@
         <v>0.35</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z4" s="65" t="s">
         <v>29</v>
@@ -4486,14 +4477,14 @@
         <v>1.2</v>
       </c>
       <c r="AG4" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="65" t="str">
         <f>VLOOKUP(C4,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/x_0003 1/x_0003 2</v>
       </c>
       <c r="AJ4" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="66" customFormat="1">
@@ -4504,13 +4495,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>67</v>
@@ -4566,7 +4557,7 @@
         <v>0.6</v>
       </c>
       <c r="Y5" s="64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z5" s="65" t="s">
         <v>26</v>
@@ -4585,7 +4576,7 @@
         <v>fish3d/x_0010 1/xiaoyu</v>
       </c>
       <c r="AJ5" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="66" customFormat="1">
@@ -4596,13 +4587,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="61" t="s">
         <v>67</v>
@@ -4658,7 +4649,7 @@
         <v>0.5</v>
       </c>
       <c r="Y6" s="64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z6" s="65" t="s">
         <v>26</v>
@@ -4677,7 +4668,7 @@
         <v>fish3d/x_0005 1/x_0005 2</v>
       </c>
       <c r="AJ6" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="66" customFormat="1">
@@ -4688,10 +4679,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>31</v>
@@ -4750,7 +4741,7 @@
         <v>0.4</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z7" s="65" t="s">
         <v>33</v>
@@ -4772,7 +4763,7 @@
         <v>fish3d/x_0004 1/x_0004 2</v>
       </c>
       <c r="AJ7" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="91" customFormat="1">
@@ -4783,13 +4774,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>67</v>
@@ -4819,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P8" s="84">
         <v>1</v>
@@ -4847,7 +4838,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" s="87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="90" t="s">
         <v>29</v>
@@ -4863,14 +4854,14 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH8" s="90" t="str">
         <f>VLOOKUP(C8,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="AJ8" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="91" customFormat="1">
@@ -4881,16 +4872,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G9" s="85" t="s">
         <v>65</v>
@@ -4917,7 +4908,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P9" s="84">
         <v>1</v>
@@ -4945,7 +4936,7 @@
         <v>0.4</v>
       </c>
       <c r="Y9" s="87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z9" s="90" t="s">
         <v>33</v>
@@ -4964,14 +4955,14 @@
         <v>2</v>
       </c>
       <c r="AG9" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH9" s="90" t="str">
         <f>VLOOKUP(C9,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="AJ9" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="91" customFormat="1">
@@ -4982,22 +4973,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>73</v>
+        <v>614</v>
       </c>
       <c r="I10" s="85">
         <v>1.64</v>
@@ -5018,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P10" s="84">
         <v>1</v>
@@ -5046,7 +5037,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z10" s="92" t="s">
         <v>34</v>
@@ -5065,14 +5056,14 @@
         <v>2</v>
       </c>
       <c r="AG10" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH10" s="90" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="AJ10" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="91" customFormat="1">
@@ -5083,16 +5074,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G11" s="85" t="s">
         <v>65</v>
@@ -5119,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P11" s="84">
         <v>2</v>
@@ -5147,7 +5138,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z11" s="90" t="s">
         <v>35</v>
@@ -5166,14 +5157,14 @@
         <v>2</v>
       </c>
       <c r="AG11" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH11" s="90" t="str">
         <f>VLOOKUP(C11,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
       <c r="AJ11" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="91" customFormat="1">
@@ -5184,16 +5175,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G12" s="85" t="s">
         <v>65</v>
@@ -5220,7 +5211,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P12" s="84">
         <v>2</v>
@@ -5248,7 +5239,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z12" s="90" t="s">
         <v>35</v>
@@ -5267,14 +5258,14 @@
         <v>2</v>
       </c>
       <c r="AG12" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH12" s="90" t="str">
         <f>VLOOKUP(C12,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
       <c r="AJ12" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:36" s="91" customFormat="1">
@@ -5285,16 +5276,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G13" s="85" t="s">
         <v>65</v>
@@ -5321,7 +5312,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P13" s="84">
         <v>3</v>
@@ -5349,7 +5340,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z13" s="90" t="s">
         <v>38</v>
@@ -5368,14 +5359,14 @@
         <v>2</v>
       </c>
       <c r="AG13" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH13" s="90" t="str">
         <f>VLOOKUP(C13,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="AJ13" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:36" s="91" customFormat="1">
@@ -5386,16 +5377,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G14" s="85" t="s">
         <v>65</v>
@@ -5422,7 +5413,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P14" s="84">
         <v>3</v>
@@ -5450,7 +5441,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z14" s="90" t="s">
         <v>40</v>
@@ -5469,14 +5460,14 @@
         <v>2</v>
       </c>
       <c r="AG14" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH14" s="90" t="str">
         <f>VLOOKUP(C14,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
       <c r="AJ14" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:36" s="91" customFormat="1">
@@ -5487,16 +5478,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G15" s="85" t="s">
         <v>65</v>
@@ -5523,7 +5514,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P15" s="84">
         <v>2</v>
@@ -5551,7 +5542,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Z15" s="90" t="s">
         <v>33</v>
@@ -5569,14 +5560,14 @@
         <v>2</v>
       </c>
       <c r="AG15" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH15" s="90" t="str">
         <f>VLOOKUP(C15,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
       <c r="AJ15" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="91" customFormat="1">
@@ -5587,16 +5578,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G16" s="85" t="s">
         <v>65</v>
@@ -5623,7 +5614,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P16" s="84">
         <v>4</v>
@@ -5651,7 +5642,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z16" s="90" t="s">
         <v>35</v>
@@ -5669,14 +5660,14 @@
         <v>2</v>
       </c>
       <c r="AG16" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH16" s="90" t="str">
         <f>VLOOKUP(C16,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="AJ16" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:36" s="91" customFormat="1">
@@ -5687,19 +5678,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H17" s="85" t="s">
         <v>81</v>
@@ -5723,7 +5714,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P17" s="84">
         <v>3</v>
@@ -5751,7 +5742,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="87" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z17" s="90" t="s">
         <v>35</v>
@@ -5769,14 +5760,14 @@
         <v>2</v>
       </c>
       <c r="AG17" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH17" s="90" t="str">
         <f>VLOOKUP(C17,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="AJ17" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:36" s="91" customFormat="1">
@@ -5787,19 +5778,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="89" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H18" s="85" t="s">
         <v>82</v>
@@ -5823,7 +5814,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P18" s="84">
         <v>4</v>
@@ -5851,7 +5842,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z18" s="90" t="s">
         <v>35</v>
@@ -5869,14 +5860,14 @@
         <v>2</v>
       </c>
       <c r="AG18" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH18" s="90" t="str">
         <f>VLOOKUP(C18,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="AJ18" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:36" s="91" customFormat="1">
@@ -5887,19 +5878,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G19" s="85" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H19" s="85" t="s">
         <v>83</v>
@@ -5923,7 +5914,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P19" s="84">
         <v>4</v>
@@ -5951,7 +5942,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="87" t="s">
-        <v>321</v>
+        <v>616</v>
       </c>
       <c r="Z19" s="90" t="s">
         <v>38</v>
@@ -5969,14 +5960,14 @@
         <v>2</v>
       </c>
       <c r="AG19" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH19" s="90" t="str">
         <f>VLOOKUP(C19,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
       <c r="AJ19" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="91" customFormat="1">
@@ -5987,22 +5978,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>84</v>
+        <v>614</v>
       </c>
       <c r="I20" s="85">
         <v>2.2799999999999998</v>
@@ -6023,7 +6014,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P20" s="84">
         <v>4</v>
@@ -6051,7 +6042,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="87" t="s">
-        <v>329</v>
+        <v>617</v>
       </c>
       <c r="Z20" s="90" t="s">
         <v>40</v>
@@ -6069,14 +6060,14 @@
         <v>1</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH20" s="90" t="str">
         <f>VLOOKUP(C20,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
       <c r="AJ20" s="90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:36" s="91" customFormat="1">
@@ -6087,22 +6078,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H21" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="85">
         <v>2.72</v>
@@ -6123,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="O21" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P21" s="84">
         <v>1</v>
@@ -6150,7 +6141,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Z21" s="90" t="s">
         <v>45</v>
@@ -6168,14 +6159,14 @@
         <v>1</v>
       </c>
       <c r="AG21" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH21" s="90" t="str">
         <f>VLOOKUP(C21,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="AJ21" s="90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:36" s="91" customFormat="1">
@@ -6186,22 +6177,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="85">
         <v>1.29</v>
@@ -6248,7 +6239,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="87" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Z22" s="90" t="s">
         <v>42</v>
@@ -6266,14 +6257,14 @@
         <v>1</v>
       </c>
       <c r="AG22" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH22" s="90" t="str">
         <f>VLOOKUP(C22,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
       <c r="AJ22" s="90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:36" s="91" customFormat="1">
@@ -6284,22 +6275,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G23" s="85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="85">
         <v>1.29</v>
@@ -6346,7 +6337,7 @@
         <v>0.35</v>
       </c>
       <c r="Y23" s="87" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Z23" s="90" t="s">
         <v>42</v>
@@ -6364,14 +6355,14 @@
         <v>1</v>
       </c>
       <c r="AG23" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH23" s="90" t="str">
         <f>VLOOKUP(C23,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="AJ23" s="90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:36" s="9" customFormat="1">
@@ -6382,22 +6373,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5">
         <v>0.94</v>
@@ -6444,7 +6435,7 @@
         <v>0.8</v>
       </c>
       <c r="Y24" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>26</v>
@@ -6459,14 +6450,14 @@
         <v>1.2</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH24" s="65" t="str">
         <f>VLOOKUP(C24,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/j_0015 1/j_0015 2</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:36" s="9" customFormat="1">
@@ -6477,22 +6468,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -6539,7 +6530,7 @@
         <v>0.7</v>
       </c>
       <c r="Y25" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z25" s="8" t="s">
         <v>26</v>
@@ -6558,7 +6549,7 @@
         <v>fish3d/j_0002 1/x_0004</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:36" s="27" customFormat="1">
@@ -6572,19 +6563,19 @@
         <v>54</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="22">
         <v>1.44</v>
@@ -6631,7 +6622,7 @@
         <v>0.35</v>
       </c>
       <c r="Y26" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z26" s="26" t="s">
         <v>49</v>
@@ -6651,7 +6642,7 @@
       </c>
       <c r="AH26" s="65"/>
       <c r="AJ26" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:36" s="91" customFormat="1">
@@ -6662,22 +6653,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="85" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D27" s="85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G27" s="85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H27" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="85">
         <v>3.77</v>
@@ -6698,7 +6689,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P27" s="84">
         <v>4</v>
@@ -6726,7 +6717,7 @@
         <v>0.35</v>
       </c>
       <c r="Y27" s="87" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z27" s="90" t="s">
         <v>40</v>
@@ -6745,14 +6736,14 @@
         <v>1</v>
       </c>
       <c r="AG27" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH27" s="90" t="str">
         <f>VLOOKUP(C27,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
       </c>
       <c r="AJ27" s="90" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:36" s="91" customFormat="1">
@@ -6763,22 +6754,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="93" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="85">
         <v>2.64</v>
@@ -6799,7 +6790,7 @@
         <v>200</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P28" s="84">
         <v>4</v>
@@ -6827,7 +6818,7 @@
         <v>0.1</v>
       </c>
       <c r="Y28" s="87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Z28" s="90" t="s">
         <v>61</v>
@@ -6847,14 +6838,14 @@
         <v>1</v>
       </c>
       <c r="AG28" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH28" s="90" t="str">
         <f>VLOOKUP(C28,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="AJ28" s="90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:36" s="27" customFormat="1">
@@ -6865,19 +6856,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>72</v>
@@ -6948,7 +6939,7 @@
         <v>fish3d/gny_0008 1/gny_0008 2</v>
       </c>
       <c r="AJ29" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:36" s="27" customFormat="1">
@@ -6962,16 +6953,16 @@
         <v>55</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>72</v>
@@ -7021,7 +7012,7 @@
         <v>0.35</v>
       </c>
       <c r="Y30" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z30" s="26" t="s">
         <v>42</v>
@@ -7040,7 +7031,7 @@
       </c>
       <c r="AH30" s="65"/>
       <c r="AJ30" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:36" s="27" customFormat="1">
@@ -7051,19 +7042,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>72</v>
@@ -7112,7 +7103,7 @@
         <v>0.35</v>
       </c>
       <c r="Y31" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Z31" s="26" t="s">
         <v>40</v>
@@ -7132,7 +7123,7 @@
       </c>
       <c r="AH31" s="65"/>
       <c r="AJ31" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:36" s="27" customFormat="1">
@@ -7143,19 +7134,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>72</v>
@@ -7205,7 +7196,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Z32" s="26" t="s">
         <v>40</v>
@@ -7228,7 +7219,7 @@
       </c>
       <c r="AH32" s="65"/>
       <c r="AJ32" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:36" s="27" customFormat="1">
@@ -7239,19 +7230,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>177</v>
+        <v>615</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>72</v>
@@ -7320,7 +7311,7 @@
       <c r="AH33" s="65"/>
       <c r="AI33" s="30"/>
       <c r="AJ33" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:36" s="27" customFormat="1">
@@ -7331,19 +7322,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>72</v>
@@ -7393,7 +7384,7 @@
         <v>0.35</v>
       </c>
       <c r="Y34" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Z34" s="26" t="s">
         <v>40</v>
@@ -7414,7 +7405,7 @@
       <c r="AH34" s="65"/>
       <c r="AI34" s="31"/>
       <c r="AJ34" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="27" customFormat="1">
@@ -7425,19 +7416,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>72</v>
@@ -7505,7 +7496,7 @@
       </c>
       <c r="AI35" s="31"/>
       <c r="AJ35" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:36" s="27" customFormat="1">
@@ -7516,19 +7507,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>72</v>
@@ -7599,7 +7590,7 @@
       </c>
       <c r="AI36" s="31"/>
       <c r="AJ36" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:36" s="27" customFormat="1">
@@ -7610,19 +7601,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>72</v>
@@ -7688,7 +7679,7 @@
         <v>2</v>
       </c>
       <c r="AG37" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH37" s="65" t="str">
         <f>VLOOKUP(C37,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7696,7 +7687,7 @@
       </c>
       <c r="AI37" s="31"/>
       <c r="AJ37" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:36" s="47" customFormat="1">
@@ -7707,19 +7698,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H38" s="44" t="s">
         <v>72</v>
@@ -7757,7 +7748,7 @@
         <v>0.74</v>
       </c>
       <c r="U38" s="44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V38" s="46">
         <v>1</v>
@@ -7770,7 +7761,7 @@
       </c>
       <c r="Y38" s="43"/>
       <c r="Z38" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA38" s="47" t="s">
         <v>62</v>
@@ -7802,19 +7793,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>74</v>
@@ -7852,7 +7843,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="V39" s="35">
         <v>1</v>
@@ -7865,7 +7856,7 @@
       </c>
       <c r="Y39" s="32"/>
       <c r="Z39" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AA39" s="36" t="s">
         <v>50</v>
@@ -7881,10 +7872,10 @@
       </c>
       <c r="AH39" s="65"/>
       <c r="AI39" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ39" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:36" s="99" customFormat="1">
@@ -7895,19 +7886,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D40" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F40" s="96" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G40" s="96" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H40" s="96" t="s">
         <v>74</v>
@@ -7958,7 +7949,7 @@
       </c>
       <c r="Y40" s="95"/>
       <c r="Z40" s="99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA40" s="99" t="s">
         <v>43</v>
@@ -7973,17 +7964,17 @@
         <v>1</v>
       </c>
       <c r="AG40" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH40" s="90" t="str">
         <f>VLOOKUP(C40,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
       <c r="AI40" s="100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ40" s="90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:36" s="36" customFormat="1">
@@ -7994,19 +7985,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>74</v>
@@ -8073,10 +8064,10 @@
       </c>
       <c r="AH41" s="65"/>
       <c r="AI41" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AJ41" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:36" s="99" customFormat="1">
@@ -8087,19 +8078,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D42" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E42" s="96" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G42" s="96" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H42" s="96" t="s">
         <v>74</v>
@@ -8150,7 +8141,7 @@
       </c>
       <c r="Y42" s="95"/>
       <c r="Z42" s="99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA42" s="99" t="s">
         <v>36</v>
@@ -8170,10 +8161,10 @@
         <v>fish3d/xb_0004 /xb_0004 1</v>
       </c>
       <c r="AI42" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ42" s="90" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:36" s="41" customFormat="1">
@@ -8184,16 +8175,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>65</v>
@@ -8247,7 +8238,7 @@
       </c>
       <c r="Y43" s="38"/>
       <c r="Z43" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA43" s="41" t="s">
         <v>36</v>
@@ -8279,19 +8270,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="96" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" s="96" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F44" s="96" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G44" s="96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H44" s="96" t="s">
         <v>74</v>
@@ -8315,7 +8306,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P44" s="95">
         <v>3</v>
@@ -8344,7 +8335,7 @@
       </c>
       <c r="Y44" s="95"/>
       <c r="Z44" s="99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA44" s="99" t="s">
         <v>39</v>
@@ -8359,17 +8350,17 @@
         <v>2</v>
       </c>
       <c r="AG44" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH44" s="90" t="str">
         <f>VLOOKUP(C44,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="AI44" s="100" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ44" s="90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:36" s="41" customFormat="1">
@@ -8380,16 +8371,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>65</v>
@@ -8443,7 +8434,7 @@
       </c>
       <c r="Y45" s="38"/>
       <c r="Z45" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA45" s="41" t="s">
         <v>36</v>
@@ -8475,16 +8466,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>65</v>
@@ -8538,7 +8529,7 @@
       </c>
       <c r="Y46" s="38"/>
       <c r="Z46" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AA46" s="41" t="s">
         <v>39</v>
@@ -8567,19 +8558,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" s="96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G47" s="96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H47" s="96" t="s">
         <v>74</v>
@@ -8630,7 +8621,7 @@
       </c>
       <c r="Y47" s="95"/>
       <c r="Z47" s="99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA47" s="99" t="s">
         <v>30</v>
@@ -8645,17 +8636,17 @@
         <v>2</v>
       </c>
       <c r="AG47" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH47" s="90" t="str">
         <f>VLOOKUP(C47,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="AI47" s="100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ47" s="90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:36" s="14" customFormat="1">
@@ -8666,19 +8657,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>74</v>
@@ -8729,7 +8720,7 @@
       </c>
       <c r="Y48" s="11"/>
       <c r="Z48" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA48" s="14" t="s">
         <v>36</v>
@@ -8748,10 +8739,10 @@
         <v>fish3d/gny_0005 1/gny_0005 2</v>
       </c>
       <c r="AI48" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AJ48" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:36" s="99" customFormat="1">
@@ -8762,19 +8753,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E49" s="96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F49" s="96" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G49" s="96" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H49" s="96" t="s">
         <v>74</v>
@@ -8840,17 +8831,17 @@
         <v>2</v>
       </c>
       <c r="AG49" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH49" s="90" t="str">
         <f>VLOOKUP(C49,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
       <c r="AI49" s="100" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AJ49" s="90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:36" s="14" customFormat="1">
@@ -8861,19 +8852,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>74</v>
@@ -8946,10 +8937,10 @@
         <v>fish3d/xb_0007_skill/xb_0007_skill 1</v>
       </c>
       <c r="AI50" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AJ50" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:36" s="19" customFormat="1">
@@ -8960,22 +8951,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I51" s="12">
         <v>2</v>
@@ -9010,7 +9001,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="V51" s="13">
         <v>0.8</v>
@@ -9052,19 +9043,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D52" s="96" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E52" s="96" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F52" s="96" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G52" s="96" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H52" s="96" t="s">
         <v>74</v>
@@ -9088,7 +9079,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P52" s="95">
         <v>4</v>
@@ -9103,7 +9094,7 @@
         <v>0.74</v>
       </c>
       <c r="U52" s="96" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V52" s="98">
         <v>1</v>
@@ -9115,14 +9106,14 @@
         <v>0.1</v>
       </c>
       <c r="Z52" s="101" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA52" s="99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB52" s="99"/>
       <c r="AD52" s="99">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AE52" s="99">
         <v>1.5</v>
@@ -9131,14 +9122,14 @@
         <v>1</v>
       </c>
       <c r="AG52" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH52" s="90" t="str">
         <f>VLOOKUP(C52,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
       <c r="AI52" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:36" s="91" customFormat="1">
@@ -9149,16 +9140,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E53" s="96" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F53" s="96" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G53" s="96" t="s">
         <v>64</v>
@@ -9185,7 +9176,7 @@
         <v>200</v>
       </c>
       <c r="O53" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P53" s="95">
         <v>4</v>
@@ -9200,7 +9191,7 @@
         <v>0.74</v>
       </c>
       <c r="U53" s="96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V53" s="98">
         <v>1</v>
@@ -9212,14 +9203,14 @@
         <v>0.1</v>
       </c>
       <c r="Z53" s="101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA53" s="99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB53" s="99"/>
       <c r="AD53" s="99">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AE53" s="99">
         <v>1.5</v>
@@ -9228,14 +9219,14 @@
         <v>1</v>
       </c>
       <c r="AG53" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH53" s="90" t="str">
         <f>VLOOKUP(C53,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
       <c r="AI53" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:36" s="91" customFormat="1">
@@ -9246,13 +9237,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E54" s="96" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F54" s="96" t="s">
         <v>64</v>
@@ -9261,7 +9252,7 @@
         <v>65</v>
       </c>
       <c r="H54" s="96" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I54" s="85">
         <v>0.96</v>
@@ -9282,7 +9273,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P54" s="84">
         <v>3</v>
@@ -9317,7 +9308,7 @@
         <v>39</v>
       </c>
       <c r="AD54" s="91">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AE54" s="91">
         <v>1.5</v>
@@ -9326,17 +9317,17 @@
         <v>2</v>
       </c>
       <c r="AG54" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH54" s="90" t="str">
         <f>VLOOKUP(C54,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
       <c r="AI54" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ54" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:36" s="91" customFormat="1">
@@ -9347,13 +9338,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F55" s="96" t="s">
         <v>64</v>
@@ -9362,7 +9353,7 @@
         <v>65</v>
       </c>
       <c r="H55" s="96" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I55" s="85">
         <v>1.53</v>
@@ -9383,7 +9374,7 @@
         <v>200</v>
       </c>
       <c r="O55" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P55" s="84">
         <v>4</v>
@@ -9418,7 +9409,7 @@
         <v>36</v>
       </c>
       <c r="AD55" s="91">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AE55" s="91">
         <v>1.5</v>
@@ -9427,17 +9418,17 @@
         <v>2</v>
       </c>
       <c r="AG55" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH55" s="90" t="str">
         <f>VLOOKUP(C55,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
       <c r="AI55" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ55" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:36" s="91" customFormat="1">
@@ -9448,13 +9439,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F56" s="96" t="s">
         <v>64</v>
@@ -9463,7 +9454,7 @@
         <v>64</v>
       </c>
       <c r="H56" s="96" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I56" s="85">
         <v>1.53</v>
@@ -9484,7 +9475,7 @@
         <v>200</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P56" s="84">
         <v>4</v>
@@ -9519,7 +9510,7 @@
         <v>36</v>
       </c>
       <c r="AD56" s="91">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AE56" s="91">
         <v>1.5</v>
@@ -9528,17 +9519,17 @@
         <v>2</v>
       </c>
       <c r="AG56" s="91" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH56" s="90" t="str">
         <f>VLOOKUP(C56,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
       <c r="AI56" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ56" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:36" s="76" customFormat="1">
@@ -9549,19 +9540,19 @@
         <v>56</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E57" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H57" s="72" t="s">
         <v>82</v>
@@ -9631,7 +9622,7 @@
         <v>fish3d/z_0007 1/z_0007 2</v>
       </c>
       <c r="AJ57" s="75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:36" s="76" customFormat="1">
@@ -9642,22 +9633,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="F58" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="D58" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>318</v>
-      </c>
       <c r="G58" s="78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H58" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I58" s="78">
         <v>2.64</v>
@@ -9691,7 +9682,7 @@
         <v>0.74</v>
       </c>
       <c r="U58" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V58" s="79">
         <v>1</v>
@@ -9703,10 +9694,10 @@
         <v>0.1</v>
       </c>
       <c r="Z58" s="80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA58" s="81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB58" s="81">
         <v>1</v>
@@ -9727,22 +9718,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="78" t="s">
         <v>337</v>
       </c>
-      <c r="D59" s="78" t="s">
-        <v>340</v>
-      </c>
       <c r="E59" s="78" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F59" s="78" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H59" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59" s="78">
         <v>2.64</v>
@@ -9776,7 +9767,7 @@
         <v>0.74</v>
       </c>
       <c r="U59" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V59" s="79">
         <v>1</v>
@@ -9788,10 +9779,10 @@
         <v>0.1</v>
       </c>
       <c r="Z59" s="80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA59" s="81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB59" s="81">
         <v>1</v>
@@ -9812,22 +9803,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="F60" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="D60" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="E60" s="78" t="s">
+      <c r="G60" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="F60" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="G60" s="78" t="s">
-        <v>345</v>
-      </c>
       <c r="H60" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" s="78">
         <v>2.64</v>
@@ -9861,7 +9852,7 @@
         <v>0.74</v>
       </c>
       <c r="U60" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V60" s="79">
         <v>1</v>
@@ -9873,10 +9864,10 @@
         <v>0.1</v>
       </c>
       <c r="Z60" s="80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA60" s="81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB60" s="81">
         <v>1</v>
@@ -9897,22 +9888,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D61" s="78" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E61" s="78" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F61" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="G61" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="G61" s="78" t="s">
-        <v>347</v>
-      </c>
       <c r="H61" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" s="78">
         <v>2.64</v>
@@ -9946,7 +9937,7 @@
         <v>0.74</v>
       </c>
       <c r="U61" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V61" s="79">
         <v>1</v>
@@ -9958,7 +9949,7 @@
         <v>0.1</v>
       </c>
       <c r="Z61" s="80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA61" s="81" t="s">
         <v>62</v>
@@ -9982,22 +9973,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="D62" s="82" t="s">
-        <v>352</v>
-      </c>
       <c r="E62" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="82" t="s">
         <v>350</v>
       </c>
-      <c r="F62" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="G62" s="82" t="s">
-        <v>353</v>
-      </c>
       <c r="H62" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I62" s="78">
         <v>2.64</v>
@@ -10031,7 +10022,7 @@
         <v>0.74</v>
       </c>
       <c r="U62" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V62" s="79">
         <v>1</v>
@@ -10043,10 +10034,10 @@
         <v>0.1</v>
       </c>
       <c r="Y62" s="71" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z62" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA62" s="77" t="s">
         <v>62</v>
@@ -10103,48 +10094,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="3:9">
       <c r="C2" s="55"/>
       <c r="D2" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F2" s="8" t="str">
         <f>CONCATENATE($H$2,I2)</f>
         <v>fish3dnode/fish3d/fish/boat 1/body</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="59"/>
       <c r="D3" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>CONCATENATE($H$2,I3)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="55"/>
       <c r="D4" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
@@ -10154,45 +10145,45 @@
         <v>fish3dnode/fish3d/fish/CT/body004</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="55"/>
       <c r="D5" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="55"/>
       <c r="D7" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -10202,173 +10193,173 @@
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="55"/>
       <c r="D8" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/DHZ/body</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="59"/>
       <c r="D9" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="55"/>
       <c r="D10" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="55"/>
       <c r="D11" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eel/Box005</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Egg/Egg_Body</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="55"/>
       <c r="D13" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="55"/>
       <c r="D14" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="55"/>
       <c r="D17" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="55"/>
       <c r="D18" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>44</v>
@@ -10378,13 +10369,13 @@
         <v>fish3dnode/fish3d/fish/Haima/Haima_Body</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="55"/>
       <c r="D19" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>48</v>
@@ -10394,13 +10385,13 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="59"/>
       <c r="D20" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>41</v>
@@ -10410,29 +10401,29 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="55"/>
       <c r="D21" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="55"/>
       <c r="D22" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>59</v>
@@ -10442,125 +10433,125 @@
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="55"/>
       <c r="D23" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="55"/>
       <c r="D24" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="55"/>
       <c r="D25" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="55"/>
       <c r="D26" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="55"/>
       <c r="D27" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="55"/>
       <c r="D28" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>422</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jijuxie 1/Bone00/Bone04/Bone27/Bone28/Bone048/Bone30/Jijuxie_Body</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="55"/>
       <c r="D29" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="55"/>
       <c r="D30" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
@@ -10570,13 +10561,13 @@
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="55"/>
       <c r="D31" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
@@ -10586,109 +10577,109 @@
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="55"/>
       <c r="D32" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Leishenxie/Liehsenxie_Body</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="55"/>
       <c r="D33" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="55"/>
       <c r="D34" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="55"/>
       <c r="D35" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="55"/>
       <c r="D36" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/MidAutumn/body</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="55"/>
       <c r="D37" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Paoshenxie/pangxie</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="55"/>
       <c r="D38" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>75</v>
@@ -10698,285 +10689,285 @@
         <v>fish3dnode/fish3d/fish/Renzhegui/renzhegui 1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="55"/>
       <c r="D39" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shanbei/ShanBei_body</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="55"/>
       <c r="D40" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shenxianyu/Shenxianyu_Body</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="55"/>
       <c r="D41" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="55"/>
       <c r="D42" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="69"/>
       <c r="D43" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="55"/>
       <c r="D44" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="69"/>
       <c r="D45" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="69"/>
       <c r="D46" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="70"/>
       <c r="D47" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="55"/>
       <c r="D48" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="55"/>
       <c r="D49" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="55"/>
       <c r="D50" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="70"/>
       <c r="D51" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="55"/>
       <c r="D52" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="70"/>
       <c r="D53" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="59"/>
       <c r="D54" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="59"/>
       <c r="D55" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="59"/>
       <c r="D56" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>44</v>
@@ -10986,13 +10977,13 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="59"/>
       <c r="D57" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>48</v>
@@ -11002,77 +10993,77 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="70"/>
       <c r="D58" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="70"/>
       <c r="D59" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="70"/>
       <c r="D60" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="70"/>
       <c r="D61" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="70"/>
       <c r="D62" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E62" s="50"/>
       <c r="F62" s="8" t="str">
@@ -11080,13 +11071,13 @@
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="70"/>
       <c r="D63" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="8" t="str">
@@ -11094,200 +11085,200 @@
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="70"/>
       <c r="D64" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="4:7">
       <c r="D65" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="4:7">
       <c r="D66" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="D67" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="4:7">
       <c r="D68" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="4:7">
       <c r="D69" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="4:7">
       <c r="D70" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="4:7">
       <c r="D71" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="4:7">
       <c r="D72" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="4:7">
       <c r="D74" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="4:7">
       <c r="D75" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="4:7">
       <c r="D76" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="D78" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="4:7">
       <c r="D80" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G80" s="58"/>
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G81" s="27"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="4:7">
       <c r="D83" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="4:7">
@@ -11299,66 +11290,66 @@
     </row>
     <row r="85" spans="4:7">
       <c r="D85" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="4:7">
       <c r="D86" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
     </row>
     <row r="89" spans="4:7">
       <c r="D89" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G90" s="27"/>
     </row>
     <row r="91" spans="4:7">
       <c r="D91" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G91" s="27"/>
     </row>
@@ -11371,404 +11362,404 @@
     </row>
     <row r="93" spans="4:7">
       <c r="D93" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
     </row>
     <row r="94" spans="4:7">
       <c r="D94" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
     </row>
     <row r="95" spans="4:7">
       <c r="D95" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
     </row>
     <row r="96" spans="4:7">
       <c r="D96" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
     </row>
     <row r="97" spans="4:7">
       <c r="D97" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G97" s="27"/>
     </row>
     <row r="98" spans="4:7">
       <c r="D98" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G98" s="27"/>
     </row>
     <row r="99" spans="4:7">
       <c r="D99" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="4:7">
       <c r="D100" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G100" s="47"/>
     </row>
     <row r="101" spans="4:7">
       <c r="D101" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
     </row>
     <row r="102" spans="4:7">
       <c r="D102" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="4:7">
       <c r="D103" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
     </row>
     <row r="104" spans="4:7">
       <c r="D104" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="4:7">
       <c r="D105" s="39" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G105" s="41"/>
     </row>
     <row r="106" spans="4:7">
       <c r="D106" s="33" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G106" s="36"/>
     </row>
     <row r="107" spans="4:7">
       <c r="D107" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G107" s="41"/>
     </row>
     <row r="108" spans="4:7">
       <c r="D108" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G108" s="41"/>
     </row>
     <row r="109" spans="4:7">
       <c r="D109" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="4:7">
       <c r="D110" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G110" s="14"/>
     </row>
     <row r="111" spans="4:7">
       <c r="D111" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G111" s="14"/>
     </row>
     <row r="112" spans="4:7">
       <c r="D112" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G112" s="14"/>
     </row>
     <row r="113" spans="4:7">
       <c r="D113" s="18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
     </row>
     <row r="114" spans="4:7">
       <c r="D114" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
     <row r="115" spans="4:7">
       <c r="D115" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="4:7">
       <c r="D116" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117" spans="4:7">
       <c r="D117" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G117" s="9"/>
     </row>
     <row r="118" spans="4:7">
       <c r="D118" s="56" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F118" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G118" s="58"/>
     </row>
     <row r="119" spans="4:7">
       <c r="D119" s="22" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G119" s="27"/>
     </row>
     <row r="120" spans="4:7">
       <c r="D120" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="4:7">
       <c r="D121" s="50" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F121" s="51"/>
       <c r="G121" s="51"/>
     </row>
     <row r="122" spans="4:7">
       <c r="D122" s="50" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
     </row>
     <row r="123" spans="4:7">
       <c r="D123" s="52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="53"/>
     </row>
     <row r="124" spans="4:7">
       <c r="D124" s="50" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="85" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="85" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="85" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="85" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="96" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="96" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="96" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="85" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="85" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" s="85" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" s="85" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" s="85" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" s="85" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" s="85" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" s="85" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" s="85" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" s="85" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" s="96" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="E161" s="85" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="E162" s="85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="E163" s="85" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="96" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E164" s="85" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="E165" s="85" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="2:5">
       <c r="E166" s="96" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="2:5">
       <c r="E167" s="85" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="E168" s="85" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="E169" s="96" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -4059,9 +4059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD52" sqref="AD52:AD56"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD53" sqref="AD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="AB53" s="99"/>
       <c r="AD53" s="99">
-        <v>3000</v>
+        <v>9200</v>
       </c>
       <c r="AE53" s="99">
         <v>1.5</v>

--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -2181,10 +2181,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew047</t>
   </si>
   <si>
@@ -3268,6 +3264,10 @@
   </si>
   <si>
     <t>4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/fish/Dabaisha/Dabaisha_Body</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4059,9 +4059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD53" sqref="AD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4139,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4679,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>195</v>
@@ -4774,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D8" s="85" t="s">
         <v>196</v>
@@ -4810,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P8" s="84">
         <v>1</v>
@@ -4854,7 +4854,7 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH8" s="90" t="str">
         <f>VLOOKUP(C8,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -4872,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D9" s="85" t="s">
         <v>209</v>
@@ -4881,7 +4881,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G9" s="85" t="s">
         <v>65</v>
@@ -4908,7 +4908,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P9" s="84">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH9" s="90" t="str">
         <f>VLOOKUP(C9,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -4973,22 +4973,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I10" s="85">
         <v>1.64</v>
@@ -4997,7 +4997,7 @@
         <v>1.88</v>
       </c>
       <c r="K10" s="84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L10" s="84">
         <v>30</v>
@@ -5009,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P10" s="84">
         <v>1</v>
@@ -5056,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="AG10" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH10" s="90" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5074,16 +5074,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>211</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G11" s="85" t="s">
         <v>65</v>
@@ -5110,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P11" s="84">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH11" s="90" t="str">
         <f>VLOOKUP(C11,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5175,7 +5175,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>212</v>
@@ -5184,7 +5184,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G12" s="85" t="s">
         <v>65</v>
@@ -5211,7 +5211,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P12" s="84">
         <v>2</v>
@@ -5258,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="AG12" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH12" s="90" t="str">
         <f>VLOOKUP(C12,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5276,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D13" s="85" t="s">
         <v>214</v>
@@ -5285,7 +5285,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G13" s="85" t="s">
         <v>65</v>
@@ -5312,7 +5312,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P13" s="84">
         <v>3</v>
@@ -5359,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH13" s="90" t="str">
         <f>VLOOKUP(C13,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5377,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D14" s="85" t="s">
         <v>213</v>
@@ -5386,7 +5386,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G14" s="85" t="s">
         <v>65</v>
@@ -5413,7 +5413,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P14" s="84">
         <v>3</v>
@@ -5460,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="AG14" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH14" s="90" t="str">
         <f>VLOOKUP(C14,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5478,13 +5478,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="85" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="E15" s="85" t="s">
         <v>609</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>608</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>610</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>257</v>
@@ -5514,7 +5514,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P15" s="84">
         <v>2</v>
@@ -5560,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="AG15" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH15" s="90" t="str">
         <f>VLOOKUP(C15,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5581,10 +5581,10 @@
         <v>358</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F16" s="85" t="s">
         <v>256</v>
@@ -5614,7 +5614,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P16" s="84">
         <v>4</v>
@@ -5660,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH16" s="90" t="str">
         <f>VLOOKUP(C16,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5678,19 +5678,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F17" s="85" t="s">
         <v>258</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H17" s="85" t="s">
         <v>81</v>
@@ -5714,7 +5714,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P17" s="84">
         <v>3</v>
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH17" s="90" t="str">
         <f>VLOOKUP(C17,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5778,7 +5778,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" s="85" t="s">
         <v>159</v>
@@ -5787,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>247</v>
@@ -5814,7 +5814,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P18" s="84">
         <v>4</v>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="AG18" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH18" s="90" t="str">
         <f>VLOOKUP(C18,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5878,19 +5878,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" s="85" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G19" s="85" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H19" s="85" t="s">
         <v>83</v>
@@ -5914,7 +5914,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P19" s="84">
         <v>4</v>
@@ -5942,7 +5942,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z19" s="90" t="s">
         <v>38</v>
@@ -5960,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="AG19" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH19" s="90" t="str">
         <f>VLOOKUP(C19,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -5978,22 +5978,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D20" s="85" t="s">
         <v>232</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I20" s="85">
         <v>2.2799999999999998</v>
@@ -6014,7 +6014,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P20" s="84">
         <v>4</v>
@@ -6042,7 +6042,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="87" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Z20" s="90" t="s">
         <v>40</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH20" s="90" t="str">
         <f>VLOOKUP(C20,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6078,7 +6078,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D21" s="85" t="s">
         <v>197</v>
@@ -6114,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="O21" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P21" s="84">
         <v>1</v>
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH21" s="90" t="str">
         <f>VLOOKUP(C21,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6177,19 +6177,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D22" s="85" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F22" s="85" t="s">
         <v>265</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H22" s="93" t="s">
         <v>85</v>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH22" s="90" t="str">
         <f>VLOOKUP(C22,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6275,7 +6275,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D23" s="85" t="s">
         <v>201</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH23" s="90" t="str">
         <f>VLOOKUP(C23,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -6569,7 +6569,7 @@
         <v>118</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>250</v>
@@ -6653,7 +6653,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="85" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D27" s="85" t="s">
         <v>204</v>
@@ -6662,7 +6662,7 @@
         <v>119</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G27" s="85" t="s">
         <v>264</v>
@@ -6689,7 +6689,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P27" s="84">
         <v>4</v>
@@ -6736,11 +6736,11 @@
         <v>1</v>
       </c>
       <c r="AG27" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH27" s="90" t="str">
         <f>VLOOKUP(C27,Sheet1!$D$2:$F$124,3,FALSE)</f>
-        <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
+        <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="AJ27" s="90" t="s">
         <v>286</v>
@@ -6754,7 +6754,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D28" s="85" t="s">
         <v>205</v>
@@ -6778,7 +6778,7 @@
         <v>2.38</v>
       </c>
       <c r="K28" s="84">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L28" s="84">
         <v>30</v>
@@ -6790,7 +6790,7 @@
         <v>200</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P28" s="84">
         <v>4</v>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH28" s="90" t="str">
         <f>VLOOKUP(C28,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7230,7 +7230,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>230</v>
@@ -7802,7 +7802,7 @@
         <v>157</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>244</v>
@@ -7886,19 +7886,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D40" s="96" t="s">
         <v>217</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F40" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="G40" s="96" t="s">
         <v>580</v>
-      </c>
-      <c r="G40" s="96" t="s">
-        <v>581</v>
       </c>
       <c r="H40" s="96" t="s">
         <v>74</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="AG40" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH40" s="90" t="str">
         <f>VLOOKUP(C40,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7988,13 +7988,13 @@
         <v>177</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>235</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>245</v>
@@ -8078,19 +8078,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>243</v>
       </c>
       <c r="E42" s="96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G42" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H42" s="96" t="s">
         <v>74</v>
@@ -8184,7 +8184,7 @@
         <v>122</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>65</v>
@@ -8270,16 +8270,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="96" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D44" s="96" t="s">
         <v>218</v>
       </c>
       <c r="E44" s="96" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F44" s="96" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G44" s="96" t="s">
         <v>246</v>
@@ -8306,7 +8306,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P44" s="95">
         <v>3</v>
@@ -8350,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="AG44" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH44" s="90" t="str">
         <f>VLOOKUP(C44,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8380,7 +8380,7 @@
         <v>121</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>65</v>
@@ -8475,7 +8475,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>65</v>
@@ -8558,7 +8558,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D47" s="96" t="s">
         <v>222</v>
@@ -8567,7 +8567,7 @@
         <v>156</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G47" s="96" t="s">
         <v>259</v>
@@ -8636,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="AG47" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH47" s="90" t="str">
         <f>VLOOKUP(C47,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8753,7 +8753,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D49" s="96" t="s">
         <v>220</v>
@@ -8822,7 +8822,7 @@
         <v>30</v>
       </c>
       <c r="AD49" s="99">
-        <v>9100</v>
+        <v>3000</v>
       </c>
       <c r="AE49" s="99">
         <v>1.5</v>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="AG49" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH49" s="90" t="str">
         <f>VLOOKUP(C49,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -8960,7 +8960,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>65</v>
@@ -9043,19 +9043,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D52" s="96" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E52" s="96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F52" s="96" t="s">
+        <v>602</v>
+      </c>
+      <c r="G52" s="96" t="s">
         <v>603</v>
-      </c>
-      <c r="G52" s="96" t="s">
-        <v>604</v>
       </c>
       <c r="H52" s="96" t="s">
         <v>74</v>
@@ -9079,7 +9079,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P52" s="95">
         <v>4</v>
@@ -9122,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="AG52" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH52" s="90" t="str">
         <f>VLOOKUP(C52,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9140,16 +9140,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E53" s="96" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F53" s="96" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G53" s="96" t="s">
         <v>64</v>
@@ -9176,7 +9176,7 @@
         <v>200</v>
       </c>
       <c r="O53" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P53" s="95">
         <v>4</v>
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="AG53" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH53" s="90" t="str">
         <f>VLOOKUP(C53,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9237,13 +9237,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E54" s="96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F54" s="96" t="s">
         <v>64</v>
@@ -9252,7 +9252,7 @@
         <v>65</v>
       </c>
       <c r="H54" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I54" s="85">
         <v>0.96</v>
@@ -9273,7 +9273,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P54" s="84">
         <v>3</v>
@@ -9317,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="AG54" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH54" s="90" t="str">
         <f>VLOOKUP(C54,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9338,13 +9338,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F55" s="96" t="s">
         <v>64</v>
@@ -9353,7 +9353,7 @@
         <v>65</v>
       </c>
       <c r="H55" s="96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I55" s="85">
         <v>1.53</v>
@@ -9374,7 +9374,7 @@
         <v>200</v>
       </c>
       <c r="O55" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P55" s="84">
         <v>4</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AG55" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH55" s="90" t="str">
         <f>VLOOKUP(C55,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9439,13 +9439,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F56" s="96" t="s">
         <v>64</v>
@@ -9454,7 +9454,7 @@
         <v>64</v>
       </c>
       <c r="H56" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I56" s="85">
         <v>1.53</v>
@@ -9475,7 +9475,7 @@
         <v>200</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P56" s="84">
         <v>4</v>
@@ -9519,7 +9519,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH56" s="90" t="str">
         <f>VLOOKUP(C56,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -9549,7 +9549,7 @@
         <v>48</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G57" s="72" t="s">
         <v>248</v>
@@ -10072,8 +10072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10110,7 +10110,7 @@
         <v>fish3dnode/fish3d/fish/boat 1/body</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>354</v>
@@ -10158,32 +10158,32 @@
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
+        <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>364</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="55"/>
       <c r="D7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -10193,13 +10193,13 @@
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="55"/>
       <c r="D8" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>109</v>
@@ -10209,29 +10209,29 @@
         <v>fish3dnode/fish3d/fish/DHZ/body</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="59"/>
       <c r="D9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="55"/>
       <c r="D10" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>104</v>
@@ -10241,45 +10241,45 @@
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="55"/>
       <c r="D11" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eel/Box005</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Egg/Egg_Body</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="55"/>
       <c r="D13" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>112</v>
@@ -10289,13 +10289,13 @@
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="55"/>
       <c r="D14" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>113</v>
@@ -10305,45 +10305,45 @@
         <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="55"/>
       <c r="D17" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>114</v>
@@ -10353,13 +10353,13 @@
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="55"/>
       <c r="D18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>44</v>
@@ -10369,13 +10369,13 @@
         <v>fish3dnode/fish3d/fish/Haima/Haima_Body</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="55"/>
       <c r="D19" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>48</v>
@@ -10385,13 +10385,13 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="59"/>
       <c r="D20" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>41</v>
@@ -10401,29 +10401,29 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="55"/>
       <c r="D21" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="55"/>
       <c r="D22" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>59</v>
@@ -10433,7 +10433,7 @@
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="3:9">
@@ -10442,20 +10442,20 @@
         <v>358</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="55"/>
       <c r="D24" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>89</v>
@@ -10465,13 +10465,13 @@
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="55"/>
       <c r="D25" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>117</v>
@@ -10481,13 +10481,13 @@
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="55"/>
       <c r="D26" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>118</v>
@@ -10497,7 +10497,7 @@
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="3:9">
@@ -10506,36 +10506,36 @@
         <v>361</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="55"/>
       <c r="D28" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jijuxie 1/Bone00/Bone04/Bone27/Bone28/Bone048/Bone30/Jijuxie_Body</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="55"/>
       <c r="D29" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>182</v>
@@ -10545,13 +10545,13 @@
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="55"/>
       <c r="D30" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
@@ -10561,13 +10561,13 @@
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="55"/>
       <c r="D31" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
@@ -10577,13 +10577,13 @@
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="55"/>
       <c r="D32" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>229</v>
@@ -10593,39 +10593,39 @@
         <v>fish3dnode/fish3d/fish/Leishenxie/Liehsenxie_Body</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="55"/>
       <c r="D33" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="55"/>
       <c r="D34" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="3:9">
@@ -10634,20 +10634,20 @@
         <v>351</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="55"/>
       <c r="D36" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>166</v>
@@ -10657,29 +10657,29 @@
         <v>fish3dnode/fish3d/fish/MidAutumn/body</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="55"/>
       <c r="D37" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Paoshenxie/pangxie</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="55"/>
       <c r="D38" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>75</v>
@@ -10689,77 +10689,77 @@
         <v>fish3dnode/fish3d/fish/Renzhegui/renzhegui 1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="55"/>
       <c r="D39" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>440</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>441</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shanbei/ShanBei_body</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="55"/>
       <c r="D40" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shenxianyu/Shenxianyu_Body</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="55"/>
       <c r="D41" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E41" s="33" t="s">
         <v>445</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>446</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="55"/>
       <c r="D42" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="69"/>
       <c r="D43" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>122</v>
@@ -10769,45 +10769,45 @@
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="55"/>
       <c r="D44" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E44" s="33" t="s">
         <v>451</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>452</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="69"/>
       <c r="D45" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>455</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>456</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="69"/>
       <c r="D46" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>91</v>
@@ -10817,13 +10817,13 @@
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="70"/>
       <c r="D47" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>156</v>
@@ -10833,13 +10833,13 @@
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="55"/>
       <c r="D48" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>154</v>
@@ -10849,29 +10849,29 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="55"/>
       <c r="D49" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="55"/>
       <c r="D50" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>181</v>
@@ -10881,13 +10881,13 @@
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="70"/>
       <c r="D51" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>163</v>
@@ -10897,13 +10897,13 @@
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="55"/>
       <c r="D52" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>306</v>
@@ -10913,61 +10913,61 @@
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="70"/>
       <c r="D53" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="59"/>
       <c r="D54" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="59"/>
       <c r="D55" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="59"/>
       <c r="D56" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>44</v>
@@ -10977,13 +10977,13 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="59"/>
       <c r="D57" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>48</v>
@@ -10993,77 +10993,77 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="70"/>
       <c r="D58" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="70"/>
       <c r="D59" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" s="50" t="s">
         <v>471</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>472</v>
       </c>
       <c r="F59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="70"/>
       <c r="D60" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="70"/>
       <c r="D61" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="70"/>
       <c r="D62" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E62" s="50"/>
       <c r="F62" s="8" t="str">
@@ -11071,13 +11071,13 @@
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="70"/>
       <c r="D63" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="8" t="str">
@@ -11085,20 +11085,20 @@
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="70"/>
       <c r="D64" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="4:7">
@@ -11107,38 +11107,38 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="4:7">
       <c r="D66" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="D67" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="4:7">
       <c r="D68" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G68" s="9"/>
     </row>
@@ -11147,13 +11147,13 @@
         <v>127</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="4:7">
       <c r="D70" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>100</v>
@@ -11180,10 +11180,10 @@
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -11210,26 +11210,26 @@
         <v>131</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="D78" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>100</v>
@@ -11241,7 +11241,7 @@
         <v>132</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G79" s="9"/>
     </row>
@@ -11250,7 +11250,7 @@
         <v>133</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G80" s="58"/>
     </row>
@@ -11275,10 +11275,10 @@
         <v>142</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="4:7">
@@ -11290,7 +11290,7 @@
     </row>
     <row r="85" spans="4:7">
       <c r="D85" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>143</v>
@@ -11305,7 +11305,7 @@
         <v>94</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="4:7">
@@ -11319,7 +11319,7 @@
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -11329,10 +11329,10 @@
         <v>98</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="4:7">
@@ -11346,10 +11346,10 @@
     </row>
     <row r="91" spans="4:7">
       <c r="D91" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G91" s="27"/>
     </row>
@@ -11369,31 +11369,31 @@
     </row>
     <row r="94" spans="4:7">
       <c r="D94" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
     </row>
     <row r="95" spans="4:7">
       <c r="D95" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
     </row>
     <row r="96" spans="4:7">
       <c r="D96" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
     </row>
     <row r="97" spans="4:7">
       <c r="D97" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G97" s="27"/>
     </row>
@@ -11408,13 +11408,13 @@
     </row>
     <row r="99" spans="4:7">
       <c r="D99" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="4:7">
@@ -11422,7 +11422,7 @@
         <v>139</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G100" s="47"/>
     </row>
@@ -11438,10 +11438,10 @@
         <v>99</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="4:7">
@@ -11456,34 +11456,34 @@
         <v>176</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="4:7">
       <c r="D105" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G105" s="41"/>
     </row>
     <row r="106" spans="4:7">
       <c r="D106" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G106" s="36"/>
     </row>
     <row r="107" spans="4:7">
       <c r="D107" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G107" s="41"/>
     </row>
@@ -11492,7 +11492,7 @@
         <v>88</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G108" s="41"/>
     </row>
@@ -11504,7 +11504,7 @@
         <v>144</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="4:7">
@@ -11512,13 +11512,13 @@
         <v>172</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G110" s="14"/>
     </row>
     <row r="111" spans="4:7">
       <c r="D111" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>95</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="112" spans="4:7">
       <c r="D112" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>167</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="113" spans="4:7">
       <c r="D113" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -11550,18 +11550,18 @@
     </row>
     <row r="115" spans="4:7">
       <c r="D115" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="4:7">
       <c r="D116" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="4:7">
@@ -11575,7 +11575,7 @@
     </row>
     <row r="118" spans="4:7">
       <c r="D118" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F118" s="57" t="s">
         <v>145</v>
@@ -11584,10 +11584,10 @@
     </row>
     <row r="119" spans="4:7">
       <c r="D119" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G119" s="27"/>
     </row>
@@ -11598,14 +11598,14 @@
     </row>
     <row r="121" spans="4:7">
       <c r="D121" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F121" s="51"/>
       <c r="G121" s="51"/>
     </row>
     <row r="122" spans="4:7">
       <c r="D122" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
@@ -11619,64 +11619,64 @@
     </row>
     <row r="124" spans="4:7">
       <c r="D124" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="85" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="85" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="85" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="96" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" s="85" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" s="85" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="5:5">
@@ -11686,80 +11686,80 @@
     </row>
     <row r="155" spans="5:5">
       <c r="E155" s="85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" s="85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" s="85" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" s="96" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="E161" s="85" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="E162" s="85" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="E163" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E164" s="85" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="E165" s="85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="2:5">
       <c r="E166" s="96" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="167" spans="2:5">
       <c r="E167" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="E168" s="85" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="E169" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/fish3d_config.xlsx
+++ b/config_aomi/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2115,14 +2115,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D091</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3268,6 +3260,14 @@
   </si>
   <si>
     <t>fish3d/fish/Dabaisha/Dabaisha_Body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish_Act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3360,7 +3360,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3427,6 +3427,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3470,7 +3476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3717,12 +3723,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3778,6 +3778,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4060,8 +4081,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4139,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4679,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>195</v>
@@ -4766,1602 +4787,1602 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="91" customFormat="1">
-      <c r="A8" s="84">
+    <row r="8" spans="1:36" s="89" customFormat="1">
+      <c r="A8" s="82">
         <v>7</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="82">
         <v>7</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="83" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="83">
         <v>0.78</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="83">
         <v>0.72</v>
       </c>
-      <c r="K8" s="84">
-        <v>1</v>
-      </c>
-      <c r="L8" s="84">
+      <c r="K8" s="82">
+        <v>1</v>
+      </c>
+      <c r="L8" s="82">
         <v>30</v>
       </c>
-      <c r="M8" s="86">
-        <v>1</v>
-      </c>
-      <c r="N8" s="84">
+      <c r="M8" s="84">
+        <v>1</v>
+      </c>
+      <c r="N8" s="82">
         <v>7</v>
       </c>
-      <c r="O8" s="87" t="s">
-        <v>610</v>
-      </c>
-      <c r="P8" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85">
+      <c r="O8" s="85" t="s">
+        <v>608</v>
+      </c>
+      <c r="P8" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83">
         <v>0.7</v>
       </c>
-      <c r="S8" s="88">
-        <v>1</v>
-      </c>
-      <c r="T8" s="88">
+      <c r="S8" s="86">
+        <v>1</v>
+      </c>
+      <c r="T8" s="86">
         <v>0.32</v>
       </c>
-      <c r="U8" s="89" t="s">
+      <c r="U8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="88">
+      <c r="V8" s="86">
         <v>0.6</v>
       </c>
-      <c r="W8" s="88">
-        <v>1</v>
-      </c>
-      <c r="X8" s="88">
+      <c r="W8" s="86">
+        <v>1</v>
+      </c>
+      <c r="X8" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y8" s="87" t="s">
+      <c r="Y8" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="Z8" s="90" t="s">
+      <c r="Z8" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="90" t="s">
+      <c r="AA8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="91">
+      <c r="AD8" s="89">
         <f>AD7-100</f>
         <v>8400</v>
       </c>
-      <c r="AE8" s="91">
+      <c r="AE8" s="89">
         <v>1.2</v>
       </c>
-      <c r="AG8" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH8" s="90" t="str">
+      <c r="AG8" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH8" s="88" t="str">
         <f>VLOOKUP(C8,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
-      <c r="AJ8" s="90" t="s">
+      <c r="AJ8" s="88" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="91" customFormat="1">
-      <c r="A9" s="84">
+    <row r="9" spans="1:36" s="89" customFormat="1">
+      <c r="A9" s="82">
         <v>8</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="82">
         <v>8</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>526</v>
-      </c>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="83" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G9" s="85" t="s">
+      <c r="F9" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="83">
         <v>1.76</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="83">
         <v>2.74</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="82">
         <v>2</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="82">
         <v>30</v>
       </c>
-      <c r="M9" s="86">
-        <v>1</v>
-      </c>
-      <c r="N9" s="84">
+      <c r="M9" s="84">
+        <v>1</v>
+      </c>
+      <c r="N9" s="82">
         <v>8</v>
       </c>
-      <c r="O9" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P9" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="85">
+      <c r="O9" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P9" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="83">
         <v>0.60000000000000009</v>
       </c>
-      <c r="S9" s="88">
-        <v>1</v>
-      </c>
-      <c r="T9" s="88">
+      <c r="S9" s="86">
+        <v>1</v>
+      </c>
+      <c r="T9" s="86">
         <v>0.26</v>
       </c>
-      <c r="U9" s="89" t="s">
+      <c r="U9" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="88">
+      <c r="V9" s="86">
         <v>0.8</v>
       </c>
-      <c r="W9" s="88">
-        <v>1</v>
-      </c>
-      <c r="X9" s="88">
+      <c r="W9" s="86">
+        <v>1</v>
+      </c>
+      <c r="X9" s="86">
         <v>0.4</v>
       </c>
-      <c r="Y9" s="87" t="s">
+      <c r="Y9" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="Z9" s="90" t="s">
+      <c r="Z9" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="90" t="s">
+      <c r="AA9" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="91">
+      <c r="AD9" s="89">
         <f t="shared" ref="AD9:AD14" si="0">AD8-100</f>
         <v>8300</v>
       </c>
-      <c r="AE9" s="91">
+      <c r="AE9" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF9" s="91">
+      <c r="AF9" s="89">
         <v>2</v>
       </c>
-      <c r="AG9" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH9" s="90" t="str">
+      <c r="AG9" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH9" s="88" t="str">
         <f>VLOOKUP(C9,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
-      <c r="AJ9" s="90" t="s">
+      <c r="AJ9" s="88" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="91" customFormat="1">
-      <c r="A10" s="84">
+    <row r="10" spans="1:36" s="89" customFormat="1">
+      <c r="A10" s="82">
         <v>9</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="82">
         <v>9</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>610</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="83" t="s">
         <v>611</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>613</v>
-      </c>
-      <c r="I10" s="85">
+      <c r="I10" s="83">
         <v>1.64</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="83">
         <v>1.88</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="82">
         <v>0.8</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="82">
         <v>30</v>
       </c>
-      <c r="M10" s="86">
-        <v>1</v>
-      </c>
-      <c r="N10" s="84">
+      <c r="M10" s="84">
+        <v>1</v>
+      </c>
+      <c r="N10" s="82">
         <v>10</v>
       </c>
-      <c r="O10" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P10" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85">
+      <c r="O10" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P10" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="83">
         <v>0.5</v>
       </c>
-      <c r="S10" s="88">
-        <v>1</v>
-      </c>
-      <c r="T10" s="88">
+      <c r="S10" s="86">
+        <v>1</v>
+      </c>
+      <c r="T10" s="86">
         <v>0.22</v>
       </c>
-      <c r="U10" s="89" t="s">
+      <c r="U10" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="V10" s="88">
+      <c r="V10" s="86">
         <v>0.8</v>
       </c>
-      <c r="W10" s="88">
-        <v>1</v>
-      </c>
-      <c r="X10" s="88">
+      <c r="W10" s="86">
+        <v>1</v>
+      </c>
+      <c r="X10" s="86">
         <v>0.45</v>
       </c>
-      <c r="Y10" s="87" t="s">
+      <c r="Y10" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="Z10" s="92" t="s">
+      <c r="Z10" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="90" t="s">
+      <c r="AA10" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="AD10" s="91">
+      <c r="AD10" s="89">
         <f t="shared" si="0"/>
         <v>8200</v>
       </c>
-      <c r="AE10" s="91">
+      <c r="AE10" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF10" s="91">
+      <c r="AF10" s="89">
         <v>2</v>
       </c>
-      <c r="AG10" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH10" s="90" t="str">
+      <c r="AG10" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH10" s="88" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
-      <c r="AJ10" s="90" t="s">
+      <c r="AJ10" s="88" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="91" customFormat="1">
-      <c r="A11" s="84">
+    <row r="11" spans="1:36" s="89" customFormat="1">
+      <c r="A11" s="82">
         <v>10</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>10</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>528</v>
-      </c>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="83" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G11" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="85">
-        <v>1</v>
-      </c>
-      <c r="J11" s="85">
+      <c r="I11" s="83">
+        <v>1</v>
+      </c>
+      <c r="J11" s="83">
         <v>1.5</v>
       </c>
-      <c r="K11" s="84">
-        <v>1</v>
-      </c>
-      <c r="L11" s="84">
+      <c r="K11" s="82">
+        <v>1</v>
+      </c>
+      <c r="L11" s="82">
         <v>30</v>
       </c>
-      <c r="M11" s="86">
-        <v>1</v>
-      </c>
-      <c r="N11" s="84">
+      <c r="M11" s="84">
+        <v>1</v>
+      </c>
+      <c r="N11" s="82">
         <v>12</v>
       </c>
-      <c r="O11" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P11" s="84">
+      <c r="O11" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P11" s="82">
         <v>2</v>
       </c>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="85">
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S11" s="88">
+      <c r="S11" s="86">
         <v>1.2</v>
       </c>
-      <c r="T11" s="88">
+      <c r="T11" s="86">
         <v>0.4</v>
       </c>
-      <c r="U11" s="89" t="s">
+      <c r="U11" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="88">
-        <v>1</v>
-      </c>
-      <c r="W11" s="88">
-        <v>1</v>
-      </c>
-      <c r="X11" s="88">
+      <c r="V11" s="86">
+        <v>1</v>
+      </c>
+      <c r="W11" s="86">
+        <v>1</v>
+      </c>
+      <c r="X11" s="86">
         <v>0.5</v>
       </c>
-      <c r="Y11" s="87" t="s">
+      <c r="Y11" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="Z11" s="90" t="s">
+      <c r="Z11" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="90" t="s">
+      <c r="AA11" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="91">
+      <c r="AD11" s="89">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="AE11" s="91">
+      <c r="AE11" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF11" s="91">
+      <c r="AF11" s="89">
         <v>2</v>
       </c>
-      <c r="AG11" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH11" s="90" t="str">
+      <c r="AG11" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH11" s="88" t="str">
         <f>VLOOKUP(C11,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
-      <c r="AJ11" s="90" t="s">
+      <c r="AJ11" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="91" customFormat="1">
-      <c r="A12" s="84">
+    <row r="12" spans="1:36" s="89" customFormat="1">
+      <c r="A12" s="82">
         <v>11</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>11</v>
       </c>
-      <c r="C12" s="85" t="s">
-        <v>529</v>
-      </c>
-      <c r="D12" s="85" t="s">
+      <c r="C12" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G12" s="85" t="s">
+      <c r="F12" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G12" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="83">
         <v>2.36</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="83">
         <v>2.58</v>
       </c>
-      <c r="K12" s="84">
-        <v>1</v>
-      </c>
-      <c r="L12" s="84">
+      <c r="K12" s="82">
+        <v>1</v>
+      </c>
+      <c r="L12" s="82">
         <v>30</v>
       </c>
-      <c r="M12" s="86">
-        <v>1</v>
-      </c>
-      <c r="N12" s="84">
+      <c r="M12" s="84">
+        <v>1</v>
+      </c>
+      <c r="N12" s="82">
         <v>15</v>
       </c>
-      <c r="O12" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P12" s="84">
+      <c r="O12" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P12" s="82">
         <v>2</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85">
+      <c r="Q12" s="82"/>
+      <c r="R12" s="83">
         <v>0.8</v>
       </c>
-      <c r="S12" s="88">
-        <v>1</v>
-      </c>
-      <c r="T12" s="88">
+      <c r="S12" s="86">
+        <v>1</v>
+      </c>
+      <c r="T12" s="86">
         <v>0.6</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="88">
+      <c r="V12" s="86">
         <v>0.7</v>
       </c>
-      <c r="W12" s="88">
-        <v>1</v>
-      </c>
-      <c r="X12" s="88">
+      <c r="W12" s="86">
+        <v>1</v>
+      </c>
+      <c r="X12" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y12" s="87" t="s">
+      <c r="Y12" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="Z12" s="90" t="s">
+      <c r="Z12" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA12" s="90" t="s">
+      <c r="AA12" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="91">
+      <c r="AD12" s="89">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AE12" s="91">
+      <c r="AE12" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF12" s="91">
+      <c r="AF12" s="89">
         <v>2</v>
       </c>
-      <c r="AG12" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH12" s="90" t="str">
+      <c r="AG12" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH12" s="88" t="str">
         <f>VLOOKUP(C12,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
-      <c r="AJ12" s="90" t="s">
+      <c r="AJ12" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="91" customFormat="1">
-      <c r="A13" s="84">
+    <row r="13" spans="1:36" s="89" customFormat="1">
+      <c r="A13" s="82">
         <v>12</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="82">
         <v>12</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>530</v>
-      </c>
-      <c r="D13" s="85" t="s">
+      <c r="C13" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G13" s="85" t="s">
+      <c r="F13" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G13" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="83">
         <v>0.96</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="83">
         <v>0.83</v>
       </c>
-      <c r="K13" s="84">
-        <v>1</v>
-      </c>
-      <c r="L13" s="84">
+      <c r="K13" s="82">
+        <v>1</v>
+      </c>
+      <c r="L13" s="82">
         <v>30</v>
       </c>
-      <c r="M13" s="86">
-        <v>1</v>
-      </c>
-      <c r="N13" s="84">
+      <c r="M13" s="84">
+        <v>1</v>
+      </c>
+      <c r="N13" s="82">
         <v>18</v>
       </c>
-      <c r="O13" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P13" s="84">
+      <c r="O13" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P13" s="82">
         <v>3</v>
       </c>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85">
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83">
         <v>0.7</v>
       </c>
-      <c r="S13" s="88">
-        <v>1</v>
-      </c>
-      <c r="T13" s="88">
+      <c r="S13" s="86">
+        <v>1</v>
+      </c>
+      <c r="T13" s="86">
         <v>0.74</v>
       </c>
-      <c r="U13" s="85" t="s">
+      <c r="U13" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="88">
-        <v>1</v>
-      </c>
-      <c r="W13" s="88">
+      <c r="V13" s="86">
+        <v>1</v>
+      </c>
+      <c r="W13" s="86">
         <v>0.7</v>
       </c>
-      <c r="X13" s="88">
+      <c r="X13" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y13" s="87" t="s">
+      <c r="Y13" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="Z13" s="90" t="s">
+      <c r="Z13" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="90" t="s">
+      <c r="AA13" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" s="91">
+      <c r="AD13" s="89">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="AE13" s="91">
+      <c r="AE13" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF13" s="91">
+      <c r="AF13" s="89">
         <v>2</v>
       </c>
-      <c r="AG13" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH13" s="90" t="str">
+      <c r="AG13" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH13" s="88" t="str">
         <f>VLOOKUP(C13,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
-      <c r="AJ13" s="90" t="s">
+      <c r="AJ13" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="91" customFormat="1">
-      <c r="A14" s="84">
+    <row r="14" spans="1:36" s="89" customFormat="1">
+      <c r="A14" s="82">
         <v>13</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="82">
         <v>13</v>
       </c>
-      <c r="C14" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G14" s="85" t="s">
+      <c r="F14" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G14" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="83">
         <v>0.96</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="83">
         <v>0.68</v>
       </c>
-      <c r="K14" s="84">
-        <v>1</v>
-      </c>
-      <c r="L14" s="84">
+      <c r="K14" s="82">
+        <v>1</v>
+      </c>
+      <c r="L14" s="82">
         <v>30</v>
       </c>
-      <c r="M14" s="86">
-        <v>1</v>
-      </c>
-      <c r="N14" s="84">
+      <c r="M14" s="84">
+        <v>1</v>
+      </c>
+      <c r="N14" s="82">
         <v>20</v>
       </c>
-      <c r="O14" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P14" s="84">
+      <c r="O14" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P14" s="82">
         <v>3</v>
       </c>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85">
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83">
         <v>0.7</v>
       </c>
-      <c r="S14" s="88">
-        <v>1</v>
-      </c>
-      <c r="T14" s="88">
+      <c r="S14" s="86">
+        <v>1</v>
+      </c>
+      <c r="T14" s="86">
         <v>0.8</v>
       </c>
-      <c r="U14" s="85" t="s">
+      <c r="U14" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="88">
+      <c r="V14" s="86">
         <v>0.7</v>
       </c>
-      <c r="W14" s="88">
-        <v>1</v>
-      </c>
-      <c r="X14" s="88">
+      <c r="W14" s="86">
+        <v>1</v>
+      </c>
+      <c r="X14" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y14" s="87" t="s">
+      <c r="Y14" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="Z14" s="90" t="s">
+      <c r="Z14" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AA14" s="90" t="s">
+      <c r="AA14" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" s="91">
+      <c r="AD14" s="89">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="AE14" s="91">
+      <c r="AE14" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF14" s="91">
+      <c r="AF14" s="89">
         <v>2</v>
       </c>
-      <c r="AG14" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH14" s="90" t="str">
+      <c r="AG14" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH14" s="88" t="str">
         <f>VLOOKUP(C14,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
-      <c r="AJ14" s="90" t="s">
+      <c r="AJ14" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="91" customFormat="1">
-      <c r="A15" s="84">
+    <row r="15" spans="1:36" s="89" customFormat="1">
+      <c r="A15" s="82">
         <v>14</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="82">
         <v>14</v>
       </c>
-      <c r="C15" s="85" t="s">
-        <v>608</v>
-      </c>
-      <c r="D15" s="85" t="s">
+      <c r="C15" s="83" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" s="83" t="s">
         <v>607</v>
       </c>
-      <c r="E15" s="85" t="s">
-        <v>609</v>
-      </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="83">
         <v>0.74</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="83">
         <v>0.86</v>
       </c>
-      <c r="K15" s="84">
-        <v>1</v>
-      </c>
-      <c r="L15" s="84">
+      <c r="K15" s="82">
+        <v>1</v>
+      </c>
+      <c r="L15" s="82">
         <v>30</v>
       </c>
-      <c r="M15" s="86">
-        <v>1</v>
-      </c>
-      <c r="N15" s="84">
+      <c r="M15" s="84">
+        <v>1</v>
+      </c>
+      <c r="N15" s="82">
         <v>25</v>
       </c>
-      <c r="O15" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P15" s="84">
+      <c r="O15" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P15" s="82">
         <v>2</v>
       </c>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85">
+      <c r="Q15" s="82"/>
+      <c r="R15" s="83">
         <v>0.8</v>
       </c>
-      <c r="S15" s="88">
-        <v>1</v>
-      </c>
-      <c r="T15" s="88">
+      <c r="S15" s="86">
+        <v>1</v>
+      </c>
+      <c r="T15" s="86">
         <v>0.26</v>
       </c>
-      <c r="U15" s="89" t="s">
+      <c r="U15" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="V15" s="88">
+      <c r="V15" s="86">
         <v>0.8</v>
       </c>
-      <c r="W15" s="88">
-        <v>1</v>
-      </c>
-      <c r="X15" s="88">
+      <c r="W15" s="86">
+        <v>1</v>
+      </c>
+      <c r="X15" s="86">
         <v>0.4</v>
       </c>
-      <c r="Y15" s="87" t="s">
+      <c r="Y15" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="Z15" s="90" t="s">
+      <c r="Z15" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="AA15" s="90" t="s">
+      <c r="AA15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="AD15" s="91">
+      <c r="AD15" s="89">
         <v>8800</v>
       </c>
-      <c r="AE15" s="91">
+      <c r="AE15" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF15" s="91">
+      <c r="AF15" s="89">
         <v>2</v>
       </c>
-      <c r="AG15" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH15" s="90" t="str">
+      <c r="AG15" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH15" s="88" t="str">
         <f>VLOOKUP(C15,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
-      <c r="AJ15" s="90" t="s">
+      <c r="AJ15" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="91" customFormat="1">
-      <c r="A16" s="84">
+    <row r="16" spans="1:36" s="89" customFormat="1">
+      <c r="A16" s="82">
         <v>15</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="82">
         <v>15</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>569</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>554</v>
-      </c>
-      <c r="F16" s="85" t="s">
+      <c r="C16" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="83">
         <v>1.53</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="83">
         <v>1.48</v>
       </c>
-      <c r="K16" s="84">
-        <v>1</v>
-      </c>
-      <c r="L16" s="84">
+      <c r="K16" s="82">
+        <v>1</v>
+      </c>
+      <c r="L16" s="82">
         <v>30</v>
       </c>
-      <c r="M16" s="86">
-        <v>1</v>
-      </c>
-      <c r="N16" s="84">
+      <c r="M16" s="84">
+        <v>1</v>
+      </c>
+      <c r="N16" s="82">
         <v>30</v>
       </c>
-      <c r="O16" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P16" s="84">
+      <c r="O16" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" s="82">
         <v>4</v>
       </c>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85">
+      <c r="Q16" s="82"/>
+      <c r="R16" s="83">
         <v>0.7</v>
       </c>
-      <c r="S16" s="88">
-        <v>1</v>
-      </c>
-      <c r="T16" s="88">
+      <c r="S16" s="86">
+        <v>1</v>
+      </c>
+      <c r="T16" s="86">
         <v>0.6</v>
       </c>
-      <c r="U16" s="85" t="s">
+      <c r="U16" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="88">
+      <c r="V16" s="86">
         <v>0.7</v>
       </c>
-      <c r="W16" s="88">
-        <v>1</v>
-      </c>
-      <c r="X16" s="88">
+      <c r="W16" s="86">
+        <v>1</v>
+      </c>
+      <c r="X16" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y16" s="87" t="s">
+      <c r="Y16" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="Z16" s="90" t="s">
+      <c r="Z16" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="90" t="s">
+      <c r="AA16" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD16" s="91">
+      <c r="AD16" s="89">
         <v>7400</v>
       </c>
-      <c r="AE16" s="91">
+      <c r="AE16" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF16" s="91">
+      <c r="AF16" s="89">
         <v>2</v>
       </c>
-      <c r="AG16" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH16" s="90" t="str">
+      <c r="AG16" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH16" s="88" t="str">
         <f>VLOOKUP(C16,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
-      <c r="AJ16" s="90" t="s">
+      <c r="AJ16" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="91" customFormat="1">
-      <c r="A17" s="84">
+    <row r="17" spans="1:36" s="89" customFormat="1">
+      <c r="A17" s="82">
         <v>16</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="82">
         <v>16</v>
       </c>
-      <c r="C17" s="85" t="s">
-        <v>531</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>570</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>543</v>
-      </c>
-      <c r="F17" s="85" t="s">
+      <c r="C17" s="83" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="85" t="s">
-        <v>589</v>
-      </c>
-      <c r="H17" s="85" t="s">
+      <c r="G17" s="83" t="s">
+        <v>587</v>
+      </c>
+      <c r="H17" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="83">
         <v>0.8</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="83">
         <v>1.3</v>
       </c>
-      <c r="K17" s="84">
-        <v>1</v>
-      </c>
-      <c r="L17" s="84">
+      <c r="K17" s="82">
+        <v>1</v>
+      </c>
+      <c r="L17" s="82">
         <v>30</v>
       </c>
-      <c r="M17" s="86">
-        <v>1</v>
-      </c>
-      <c r="N17" s="84">
+      <c r="M17" s="84">
+        <v>1</v>
+      </c>
+      <c r="N17" s="82">
         <v>35</v>
       </c>
-      <c r="O17" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P17" s="84">
+      <c r="O17" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P17" s="82">
         <v>3</v>
       </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85">
+      <c r="Q17" s="82"/>
+      <c r="R17" s="83">
         <v>0.8</v>
       </c>
-      <c r="S17" s="88">
-        <v>1</v>
-      </c>
-      <c r="T17" s="88">
+      <c r="S17" s="86">
+        <v>1</v>
+      </c>
+      <c r="T17" s="86">
         <v>0.4</v>
       </c>
-      <c r="U17" s="89" t="s">
+      <c r="U17" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="88">
-        <v>1</v>
-      </c>
-      <c r="W17" s="88">
-        <v>1</v>
-      </c>
-      <c r="X17" s="88">
+      <c r="V17" s="86">
+        <v>1</v>
+      </c>
+      <c r="W17" s="86">
+        <v>1</v>
+      </c>
+      <c r="X17" s="86">
         <v>0.5</v>
       </c>
-      <c r="Y17" s="87" t="s">
+      <c r="Y17" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="Z17" s="90" t="s">
+      <c r="Z17" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="90" t="s">
+      <c r="AA17" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="91">
+      <c r="AD17" s="89">
         <v>7300</v>
       </c>
-      <c r="AE17" s="91">
+      <c r="AE17" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF17" s="91">
+      <c r="AF17" s="89">
         <v>2</v>
       </c>
-      <c r="AG17" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH17" s="90" t="str">
+      <c r="AG17" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH17" s="88" t="str">
         <f>VLOOKUP(C17,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
-      <c r="AJ17" s="90" t="s">
+      <c r="AJ17" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="91" customFormat="1">
-      <c r="A18" s="84">
+    <row r="18" spans="1:36" s="89" customFormat="1">
+      <c r="A18" s="82">
         <v>17</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="82">
         <v>17</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" s="85" t="s">
+      <c r="C18" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G18" s="85" t="s">
+      <c r="F18" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="83">
         <v>1.53</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="83">
         <v>1.48</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="82">
         <v>0.8</v>
       </c>
-      <c r="L18" s="84">
+      <c r="L18" s="82">
         <v>30</v>
       </c>
-      <c r="M18" s="86">
-        <v>1</v>
-      </c>
-      <c r="N18" s="84">
+      <c r="M18" s="84">
+        <v>1</v>
+      </c>
+      <c r="N18" s="82">
         <v>40</v>
       </c>
-      <c r="O18" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P18" s="84">
+      <c r="O18" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P18" s="82">
         <v>4</v>
       </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85">
+      <c r="Q18" s="82"/>
+      <c r="R18" s="83">
         <v>0.7</v>
       </c>
-      <c r="S18" s="88">
-        <v>1</v>
-      </c>
-      <c r="T18" s="88">
+      <c r="S18" s="86">
+        <v>1</v>
+      </c>
+      <c r="T18" s="86">
         <v>0.6</v>
       </c>
-      <c r="U18" s="85" t="s">
+      <c r="U18" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="88">
+      <c r="V18" s="86">
         <v>1.2</v>
       </c>
-      <c r="W18" s="88">
-        <v>1</v>
-      </c>
-      <c r="X18" s="88">
+      <c r="W18" s="86">
+        <v>1</v>
+      </c>
+      <c r="X18" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y18" s="87" t="s">
+      <c r="Y18" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="Z18" s="90" t="s">
+      <c r="Z18" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" s="90" t="s">
+      <c r="AA18" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD18" s="91">
+      <c r="AD18" s="89">
         <v>7200</v>
       </c>
-      <c r="AE18" s="91">
+      <c r="AE18" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF18" s="91">
+      <c r="AF18" s="89">
         <v>2</v>
       </c>
-      <c r="AG18" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH18" s="90" t="str">
+      <c r="AG18" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH18" s="88" t="str">
         <f>VLOOKUP(C18,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
-      <c r="AJ18" s="90" t="s">
+      <c r="AJ18" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="91" customFormat="1">
-      <c r="A19" s="84">
+    <row r="19" spans="1:36" s="89" customFormat="1">
+      <c r="A19" s="82">
         <v>18</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="82">
         <v>18</v>
       </c>
-      <c r="C19" s="85" t="s">
-        <v>377</v>
-      </c>
-      <c r="D19" s="85" t="s">
+      <c r="C19" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="85" t="s">
-        <v>555</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G19" s="85" t="s">
-        <v>588</v>
-      </c>
-      <c r="H19" s="85" t="s">
+      <c r="E19" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>586</v>
+      </c>
+      <c r="H19" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="83">
         <v>0.66</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="83">
         <v>0.89</v>
       </c>
-      <c r="K19" s="84">
-        <v>1</v>
-      </c>
-      <c r="L19" s="84">
+      <c r="K19" s="82">
+        <v>1</v>
+      </c>
+      <c r="L19" s="82">
         <v>30</v>
       </c>
-      <c r="M19" s="86">
-        <v>1</v>
-      </c>
-      <c r="N19" s="84">
+      <c r="M19" s="84">
+        <v>1</v>
+      </c>
+      <c r="N19" s="82">
         <v>60</v>
       </c>
-      <c r="O19" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="P19" s="84">
+      <c r="O19" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P19" s="82">
         <v>4</v>
       </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85">
+      <c r="Q19" s="82"/>
+      <c r="R19" s="83">
         <v>0.8</v>
       </c>
-      <c r="S19" s="88">
-        <v>1</v>
-      </c>
-      <c r="T19" s="88">
+      <c r="S19" s="86">
+        <v>1</v>
+      </c>
+      <c r="T19" s="86">
         <v>0.74</v>
       </c>
-      <c r="U19" s="85" t="s">
+      <c r="U19" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="88">
+      <c r="V19" s="86">
         <v>0.7</v>
       </c>
-      <c r="W19" s="88">
-        <v>1</v>
-      </c>
-      <c r="X19" s="88">
+      <c r="W19" s="86">
+        <v>1</v>
+      </c>
+      <c r="X19" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y19" s="87" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z19" s="90" t="s">
+      <c r="Y19" s="85" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="90" t="s">
+      <c r="AA19" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="91">
+      <c r="AD19" s="89">
         <v>7100</v>
       </c>
-      <c r="AE19" s="91">
+      <c r="AE19" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF19" s="91">
+      <c r="AF19" s="89">
         <v>2</v>
       </c>
-      <c r="AG19" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH19" s="90" t="str">
+      <c r="AG19" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH19" s="88" t="str">
         <f>VLOOKUP(C19,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
-      <c r="AJ19" s="90" t="s">
+      <c r="AJ19" s="88" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="91" customFormat="1">
-      <c r="A20" s="84">
+    <row r="20" spans="1:36" s="89" customFormat="1">
+      <c r="A20" s="82">
         <v>19</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="82">
         <v>19</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>582</v>
-      </c>
-      <c r="D20" s="85" t="s">
+      <c r="C20" s="83" t="s">
+        <v>580</v>
+      </c>
+      <c r="D20" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="85" t="s">
-        <v>583</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>591</v>
-      </c>
-      <c r="H20" s="85" t="s">
-        <v>613</v>
-      </c>
-      <c r="I20" s="85">
+      <c r="E20" s="83" t="s">
+        <v>581</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>589</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>611</v>
+      </c>
+      <c r="I20" s="83">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J20" s="85">
+      <c r="J20" s="83">
         <v>3.46</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="82">
         <v>0.8</v>
       </c>
-      <c r="L20" s="84">
+      <c r="L20" s="82">
         <v>30</v>
       </c>
-      <c r="M20" s="86">
-        <v>1</v>
-      </c>
-      <c r="N20" s="84">
+      <c r="M20" s="84">
+        <v>1</v>
+      </c>
+      <c r="N20" s="82">
         <v>60</v>
       </c>
-      <c r="O20" s="87" t="s">
-        <v>574</v>
-      </c>
-      <c r="P20" s="84">
+      <c r="O20" s="85" t="s">
+        <v>572</v>
+      </c>
+      <c r="P20" s="82">
         <v>4</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85">
+      <c r="Q20" s="82"/>
+      <c r="R20" s="83">
         <v>0.7</v>
       </c>
-      <c r="S20" s="88">
-        <v>1</v>
-      </c>
-      <c r="T20" s="88">
+      <c r="S20" s="86">
+        <v>1</v>
+      </c>
+      <c r="T20" s="86">
         <v>0.74</v>
       </c>
-      <c r="U20" s="85" t="s">
+      <c r="U20" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="88">
-        <v>1</v>
-      </c>
-      <c r="W20" s="88">
-        <v>1</v>
-      </c>
-      <c r="X20" s="88">
+      <c r="V20" s="86">
+        <v>1</v>
+      </c>
+      <c r="W20" s="86">
+        <v>1</v>
+      </c>
+      <c r="X20" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y20" s="87" t="s">
-        <v>616</v>
-      </c>
-      <c r="Z20" s="90" t="s">
+      <c r="Y20" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z20" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="90" t="s">
+      <c r="AA20" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AD20" s="91">
+      <c r="AD20" s="89">
         <v>7000</v>
       </c>
-      <c r="AE20" s="91">
+      <c r="AE20" s="89">
         <v>2</v>
       </c>
-      <c r="AF20" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH20" s="90" t="str">
+      <c r="AF20" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH20" s="88" t="str">
         <f>VLOOKUP(C20,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
-      <c r="AJ20" s="90" t="s">
+      <c r="AJ20" s="88" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="91" customFormat="1">
-      <c r="A21" s="84">
+    <row r="21" spans="1:36" s="89" customFormat="1">
+      <c r="A21" s="82">
         <v>20</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="82">
         <v>20</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>539</v>
-      </c>
-      <c r="D21" s="85" t="s">
+      <c r="C21" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="85">
+      <c r="I21" s="83">
         <v>2.72</v>
       </c>
-      <c r="J21" s="85">
+      <c r="J21" s="83">
         <v>2.62</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="82">
         <v>0.8</v>
       </c>
-      <c r="L21" s="84">
+      <c r="L21" s="82">
         <v>30</v>
       </c>
-      <c r="M21" s="86">
-        <v>1</v>
-      </c>
-      <c r="N21" s="84">
+      <c r="M21" s="84">
+        <v>1</v>
+      </c>
+      <c r="N21" s="82">
         <v>80</v>
       </c>
-      <c r="O21" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P21" s="84">
-        <v>1</v>
-      </c>
-      <c r="R21" s="85">
+      <c r="O21" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P21" s="82">
+        <v>1</v>
+      </c>
+      <c r="R21" s="83">
         <v>0.8</v>
       </c>
-      <c r="S21" s="88">
-        <v>1</v>
-      </c>
-      <c r="T21" s="88">
+      <c r="S21" s="86">
+        <v>1</v>
+      </c>
+      <c r="T21" s="86">
         <v>0.74</v>
       </c>
-      <c r="U21" s="85" t="s">
+      <c r="U21" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="88">
-        <v>1</v>
-      </c>
-      <c r="W21" s="88">
-        <v>1</v>
-      </c>
-      <c r="X21" s="88">
+      <c r="V21" s="86">
+        <v>1</v>
+      </c>
+      <c r="W21" s="86">
+        <v>1</v>
+      </c>
+      <c r="X21" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y21" s="87" t="s">
+      <c r="Y21" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="Z21" s="90" t="s">
+      <c r="Z21" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="90" t="s">
+      <c r="AA21" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="91">
+      <c r="AD21" s="89">
         <v>6500</v>
       </c>
-      <c r="AE21" s="91">
+      <c r="AE21" s="89">
         <v>2</v>
       </c>
-      <c r="AF21" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH21" s="90" t="str">
+      <c r="AF21" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH21" s="88" t="str">
         <f>VLOOKUP(C21,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
-      <c r="AJ21" s="90" t="s">
+      <c r="AJ21" s="88" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="91" customFormat="1">
-      <c r="A22" s="84">
+    <row r="22" spans="1:36" s="89" customFormat="1">
+      <c r="A22" s="82">
         <v>21</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="82">
         <v>21</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>532</v>
-      </c>
-      <c r="D22" s="85" t="s">
+      <c r="C22" s="83" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="85" t="s">
-        <v>548</v>
-      </c>
-      <c r="F22" s="85" t="s">
+      <c r="E22" s="83" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="G22" s="85" t="s">
-        <v>590</v>
-      </c>
-      <c r="H22" s="93" t="s">
+      <c r="G22" s="83" t="s">
+        <v>588</v>
+      </c>
+      <c r="H22" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="83">
         <v>1.29</v>
       </c>
-      <c r="J22" s="85">
+      <c r="J22" s="83">
         <v>1.8</v>
       </c>
-      <c r="K22" s="84">
+      <c r="K22" s="82">
         <v>0.8</v>
       </c>
-      <c r="L22" s="84">
+      <c r="L22" s="82">
         <v>30</v>
       </c>
-      <c r="M22" s="86">
-        <v>1</v>
-      </c>
-      <c r="N22" s="84">
+      <c r="M22" s="84">
+        <v>1</v>
+      </c>
+      <c r="N22" s="82">
         <v>55</v>
       </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84">
+      <c r="O22" s="82"/>
+      <c r="P22" s="82">
         <v>3</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85">
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83">
         <v>0.8</v>
       </c>
-      <c r="S22" s="88">
-        <v>1</v>
-      </c>
-      <c r="T22" s="88">
+      <c r="S22" s="86">
+        <v>1</v>
+      </c>
+      <c r="T22" s="86">
         <v>0.8</v>
       </c>
-      <c r="U22" s="85" t="s">
+      <c r="U22" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="88">
+      <c r="V22" s="86">
         <v>1.5</v>
       </c>
-      <c r="W22" s="88">
-        <v>1</v>
-      </c>
-      <c r="X22" s="88">
+      <c r="W22" s="86">
+        <v>1</v>
+      </c>
+      <c r="X22" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="87" t="s">
+      <c r="Y22" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="Z22" s="90" t="s">
+      <c r="Z22" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AA22" s="90" t="s">
+      <c r="AA22" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AD22" s="91">
+      <c r="AD22" s="89">
         <v>6400</v>
       </c>
-      <c r="AE22" s="91">
+      <c r="AE22" s="89">
         <v>2</v>
       </c>
-      <c r="AF22" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH22" s="90" t="str">
+      <c r="AF22" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH22" s="88" t="str">
         <f>VLOOKUP(C22,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
-      <c r="AJ22" s="90" t="s">
+      <c r="AJ22" s="88" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="91" customFormat="1">
-      <c r="A23" s="84">
+    <row r="23" spans="1:36" s="89" customFormat="1">
+      <c r="A23" s="82">
         <v>22</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="82">
         <v>22</v>
       </c>
-      <c r="C23" s="85" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="85" t="s">
+      <c r="C23" s="83" t="s">
+        <v>540</v>
+      </c>
+      <c r="D23" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="83">
         <v>1.29</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="83">
         <v>1.8</v>
       </c>
-      <c r="K23" s="84">
+      <c r="K23" s="82">
         <v>0.8</v>
       </c>
-      <c r="L23" s="84">
+      <c r="L23" s="82">
         <v>30</v>
       </c>
-      <c r="M23" s="86">
-        <v>1</v>
-      </c>
-      <c r="N23" s="84">
+      <c r="M23" s="84">
+        <v>1</v>
+      </c>
+      <c r="N23" s="82">
         <v>120</v>
       </c>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84">
+      <c r="O23" s="82"/>
+      <c r="P23" s="82">
         <v>3</v>
       </c>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85">
+      <c r="Q23" s="82"/>
+      <c r="R23" s="83">
         <v>0.8</v>
       </c>
-      <c r="S23" s="88">
-        <v>1</v>
-      </c>
-      <c r="T23" s="88">
+      <c r="S23" s="86">
+        <v>1</v>
+      </c>
+      <c r="T23" s="86">
         <v>0.8</v>
       </c>
-      <c r="U23" s="85" t="s">
+      <c r="U23" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="88">
+      <c r="V23" s="86">
         <v>1.5</v>
       </c>
-      <c r="W23" s="88">
-        <v>1</v>
-      </c>
-      <c r="X23" s="88">
+      <c r="W23" s="86">
+        <v>1</v>
+      </c>
+      <c r="X23" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y23" s="87" t="s">
+      <c r="Y23" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="Z23" s="90" t="s">
+      <c r="Z23" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="90" t="s">
+      <c r="AA23" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="91">
+      <c r="AD23" s="89">
         <v>6300</v>
       </c>
-      <c r="AE23" s="91">
+      <c r="AE23" s="89">
         <v>2</v>
       </c>
-      <c r="AF23" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH23" s="90" t="str">
+      <c r="AF23" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH23" s="88" t="str">
         <f>VLOOKUP(C23,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
-      <c r="AJ23" s="90" t="s">
+      <c r="AJ23" s="88" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6569,7 +6590,7 @@
         <v>118</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>250</v>
@@ -6645,206 +6666,206 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="91" customFormat="1">
-      <c r="A27" s="84">
+    <row r="27" spans="1:36" s="89" customFormat="1">
+      <c r="A27" s="82">
         <v>26</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="82">
         <v>26</v>
       </c>
-      <c r="C27" s="85" t="s">
-        <v>540</v>
-      </c>
-      <c r="D27" s="85" t="s">
+      <c r="C27" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="85" t="s">
-        <v>594</v>
-      </c>
-      <c r="G27" s="85" t="s">
+      <c r="F27" s="83" t="s">
+        <v>592</v>
+      </c>
+      <c r="G27" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="83">
         <v>3.77</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="83">
         <v>2.8</v>
       </c>
-      <c r="K27" s="84">
+      <c r="K27" s="82">
         <v>0.8</v>
       </c>
-      <c r="L27" s="84">
+      <c r="L27" s="82">
         <v>30</v>
       </c>
-      <c r="M27" s="86">
-        <v>1</v>
-      </c>
-      <c r="N27" s="84">
+      <c r="M27" s="84">
+        <v>1</v>
+      </c>
+      <c r="N27" s="82">
         <v>180</v>
       </c>
-      <c r="O27" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P27" s="84">
+      <c r="O27" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P27" s="82">
         <v>4</v>
       </c>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="85">
+      <c r="Q27" s="85"/>
+      <c r="R27" s="83">
         <v>0.7</v>
       </c>
-      <c r="S27" s="88">
-        <v>1</v>
-      </c>
-      <c r="T27" s="88">
+      <c r="S27" s="86">
+        <v>1</v>
+      </c>
+      <c r="T27" s="86">
         <v>0.74</v>
       </c>
-      <c r="U27" s="85" t="s">
+      <c r="U27" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="88">
-        <v>1</v>
-      </c>
-      <c r="W27" s="88">
-        <v>1</v>
-      </c>
-      <c r="X27" s="88">
+      <c r="V27" s="86">
+        <v>1</v>
+      </c>
+      <c r="W27" s="86">
+        <v>1</v>
+      </c>
+      <c r="X27" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y27" s="87" t="s">
+      <c r="Y27" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="Z27" s="90" t="s">
+      <c r="Z27" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AA27" s="90" t="s">
+      <c r="AA27" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="91">
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="89">
         <v>5900</v>
       </c>
-      <c r="AE27" s="91">
+      <c r="AE27" s="89">
         <v>2</v>
       </c>
-      <c r="AF27" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH27" s="90" t="str">
+      <c r="AF27" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH27" s="88" t="str">
         <f>VLOOKUP(C27,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
-      <c r="AJ27" s="90" t="s">
+      <c r="AJ27" s="88" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="91" customFormat="1">
-      <c r="A28" s="84">
+    <row r="28" spans="1:36" s="89" customFormat="1">
+      <c r="A28" s="82">
         <v>27</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="82">
         <v>27</v>
       </c>
-      <c r="C28" s="85" t="s">
-        <v>541</v>
-      </c>
-      <c r="D28" s="85" t="s">
+      <c r="C28" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="83">
         <v>2.64</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="83">
         <v>2.38</v>
       </c>
-      <c r="K28" s="84">
+      <c r="K28" s="82">
         <v>0.6</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="82">
         <v>30</v>
       </c>
-      <c r="M28" s="94">
-        <v>1</v>
-      </c>
-      <c r="N28" s="84">
+      <c r="M28" s="92">
+        <v>1</v>
+      </c>
+      <c r="N28" s="82">
         <v>200</v>
       </c>
-      <c r="O28" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P28" s="84">
+      <c r="O28" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P28" s="82">
         <v>4</v>
       </c>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="85">
+      <c r="Q28" s="85"/>
+      <c r="R28" s="83">
         <v>1.2</v>
       </c>
-      <c r="S28" s="88">
+      <c r="S28" s="86">
         <v>0.73333333333333328</v>
       </c>
-      <c r="T28" s="88">
+      <c r="T28" s="86">
         <v>0.74</v>
       </c>
-      <c r="U28" s="85" t="s">
+      <c r="U28" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="88">
-        <v>1</v>
-      </c>
-      <c r="W28" s="88">
+      <c r="V28" s="86">
+        <v>1</v>
+      </c>
+      <c r="W28" s="86">
         <v>0.8</v>
       </c>
-      <c r="X28" s="88">
+      <c r="X28" s="86">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="87" t="s">
+      <c r="Y28" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="Z28" s="90" t="s">
+      <c r="Z28" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AA28" s="90" t="s">
+      <c r="AA28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91">
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="89">
         <v>5800</v>
       </c>
-      <c r="AE28" s="91">
+      <c r="AE28" s="89">
         <v>2</v>
       </c>
-      <c r="AF28" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH28" s="90" t="str">
+      <c r="AF28" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH28" s="88" t="str">
         <f>VLOOKUP(C28,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
-      <c r="AJ28" s="90" t="s">
+      <c r="AJ28" s="88" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7230,7 +7251,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>230</v>
@@ -7802,7 +7823,7 @@
         <v>157</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>244</v>
@@ -7878,102 +7899,102 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="99" customFormat="1">
-      <c r="A40" s="95">
+    <row r="40" spans="1:36" s="97" customFormat="1">
+      <c r="A40" s="93">
         <v>39</v>
       </c>
-      <c r="B40" s="95">
+      <c r="B40" s="93">
         <v>39</v>
       </c>
-      <c r="C40" s="96" t="s">
-        <v>544</v>
-      </c>
-      <c r="D40" s="96" t="s">
+      <c r="C40" s="94" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="96" t="s">
-        <v>586</v>
-      </c>
-      <c r="F40" s="96" t="s">
-        <v>579</v>
-      </c>
-      <c r="G40" s="96" t="s">
-        <v>580</v>
-      </c>
-      <c r="H40" s="96" t="s">
+      <c r="E40" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>577</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="H40" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I40" s="96">
+      <c r="I40" s="94">
         <v>1.68</v>
       </c>
-      <c r="J40" s="96">
+      <c r="J40" s="94">
         <v>2.84</v>
       </c>
-      <c r="K40" s="95">
+      <c r="K40" s="93">
         <v>0.8</v>
       </c>
-      <c r="L40" s="95">
+      <c r="L40" s="93">
         <v>30</v>
       </c>
-      <c r="M40" s="96">
-        <v>1</v>
-      </c>
-      <c r="N40" s="95">
+      <c r="M40" s="94">
+        <v>1</v>
+      </c>
+      <c r="N40" s="93">
         <v>200</v>
       </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="95">
+      <c r="O40" s="95"/>
+      <c r="P40" s="93">
         <v>3</v>
       </c>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="96">
+      <c r="Q40" s="93"/>
+      <c r="R40" s="94">
         <v>0.7</v>
       </c>
-      <c r="S40" s="98">
-        <v>1</v>
-      </c>
-      <c r="T40" s="98">
+      <c r="S40" s="96">
+        <v>1</v>
+      </c>
+      <c r="T40" s="96">
         <v>0.74</v>
       </c>
-      <c r="U40" s="96" t="s">
+      <c r="U40" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="V40" s="98">
-        <v>1</v>
-      </c>
-      <c r="W40" s="98">
-        <v>1</v>
-      </c>
-      <c r="X40" s="98">
+      <c r="V40" s="96">
+        <v>1</v>
+      </c>
+      <c r="W40" s="96">
+        <v>1</v>
+      </c>
+      <c r="X40" s="96">
         <v>0.35</v>
       </c>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="99" t="s">
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="AA40" s="99" t="s">
+      <c r="AA40" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="AD40" s="99">
+      <c r="AD40" s="97">
         <v>9100</v>
       </c>
-      <c r="AE40" s="99">
+      <c r="AE40" s="97">
         <v>2</v>
       </c>
-      <c r="AF40" s="99">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH40" s="90" t="str">
+      <c r="AF40" s="97">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH40" s="88" t="str">
         <f>VLOOKUP(C40,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
-      <c r="AI40" s="100" t="s">
+      <c r="AI40" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="AJ40" s="90" t="s">
+      <c r="AJ40" s="88" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7988,13 +8009,13 @@
         <v>177</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>235</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>245</v>
@@ -8070,100 +8091,100 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="99" customFormat="1">
-      <c r="A42" s="95">
+    <row r="42" spans="1:36" s="97" customFormat="1">
+      <c r="A42" s="93">
         <v>41</v>
       </c>
-      <c r="B42" s="95">
+      <c r="B42" s="93">
         <v>41</v>
       </c>
-      <c r="C42" s="96" t="s">
-        <v>585</v>
-      </c>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="94" t="s">
+        <v>583</v>
+      </c>
+      <c r="D42" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="96" t="s">
-        <v>601</v>
-      </c>
-      <c r="F42" s="96" t="s">
-        <v>576</v>
-      </c>
-      <c r="G42" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="H42" s="96" t="s">
+      <c r="E42" s="94" t="s">
+        <v>599</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="G42" s="94" t="s">
+        <v>579</v>
+      </c>
+      <c r="H42" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="96">
-        <v>1</v>
-      </c>
-      <c r="J42" s="96">
+      <c r="I42" s="94">
+        <v>1</v>
+      </c>
+      <c r="J42" s="94">
         <v>1.5</v>
       </c>
-      <c r="K42" s="95">
+      <c r="K42" s="93">
         <v>0.8</v>
       </c>
-      <c r="L42" s="95">
+      <c r="L42" s="93">
         <v>30</v>
       </c>
-      <c r="M42" s="96">
-        <v>1</v>
-      </c>
-      <c r="N42" s="95">
+      <c r="M42" s="94">
+        <v>1</v>
+      </c>
+      <c r="N42" s="93">
         <v>300</v>
       </c>
-      <c r="O42" s="84"/>
-      <c r="P42" s="95">
+      <c r="O42" s="82"/>
+      <c r="P42" s="93">
         <v>2</v>
       </c>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="96">
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S42" s="98">
+      <c r="S42" s="96">
         <v>1.2</v>
       </c>
-      <c r="T42" s="98">
+      <c r="T42" s="96">
         <v>0.4</v>
       </c>
-      <c r="U42" s="96" t="s">
+      <c r="U42" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="98">
-        <v>1</v>
-      </c>
-      <c r="W42" s="98">
-        <v>1</v>
-      </c>
-      <c r="X42" s="98">
+      <c r="V42" s="96">
+        <v>1</v>
+      </c>
+      <c r="W42" s="96">
+        <v>1</v>
+      </c>
+      <c r="X42" s="96">
         <v>0.5</v>
       </c>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="99" t="s">
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="AA42" s="99" t="s">
+      <c r="AA42" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="AD42" s="99">
+      <c r="AD42" s="97">
         <v>3200</v>
       </c>
-      <c r="AE42" s="99">
+      <c r="AE42" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF42" s="99">
+      <c r="AF42" s="97">
         <v>2</v>
       </c>
-      <c r="AG42" s="91"/>
-      <c r="AH42" s="90" t="str">
+      <c r="AG42" s="89"/>
+      <c r="AH42" s="88" t="str">
         <f>VLOOKUP(C42,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3d/xb_0004 /xb_0004 1</v>
       </c>
-      <c r="AI42" s="100" t="s">
+      <c r="AI42" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="AJ42" s="90" t="s">
+      <c r="AJ42" s="88" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8184,7 +8205,7 @@
         <v>122</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>65</v>
@@ -8262,104 +8283,104 @@
       <c r="AI43" s="42"/>
       <c r="AJ43" s="42"/>
     </row>
-    <row r="44" spans="1:36" s="99" customFormat="1">
-      <c r="A44" s="95">
+    <row r="44" spans="1:36" s="97" customFormat="1">
+      <c r="A44" s="93">
         <v>43</v>
       </c>
-      <c r="B44" s="95">
+      <c r="B44" s="93">
         <v>43</v>
       </c>
-      <c r="C44" s="96" t="s">
-        <v>546</v>
-      </c>
-      <c r="D44" s="96" t="s">
+      <c r="C44" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="D44" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="F44" s="96" t="s">
-        <v>577</v>
-      </c>
-      <c r="G44" s="96" t="s">
+      <c r="E44" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>575</v>
+      </c>
+      <c r="G44" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="96" t="s">
+      <c r="H44" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="96">
+      <c r="I44" s="94">
         <v>0.96</v>
       </c>
-      <c r="J44" s="96">
+      <c r="J44" s="94">
         <v>0.83</v>
       </c>
-      <c r="K44" s="95">
+      <c r="K44" s="93">
         <v>0.8</v>
       </c>
-      <c r="L44" s="95">
+      <c r="L44" s="93">
         <v>30</v>
       </c>
-      <c r="M44" s="96">
-        <v>1</v>
-      </c>
-      <c r="N44" s="95">
+      <c r="M44" s="94">
+        <v>1</v>
+      </c>
+      <c r="N44" s="93">
         <v>500</v>
       </c>
-      <c r="O44" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P44" s="95">
+      <c r="O44" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P44" s="93">
         <v>3</v>
       </c>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="96">
+      <c r="Q44" s="93"/>
+      <c r="R44" s="94">
         <v>0.7</v>
       </c>
-      <c r="S44" s="98">
-        <v>1</v>
-      </c>
-      <c r="T44" s="98">
+      <c r="S44" s="96">
+        <v>1</v>
+      </c>
+      <c r="T44" s="96">
         <v>0.74</v>
       </c>
-      <c r="U44" s="96" t="s">
+      <c r="U44" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="V44" s="98">
-        <v>1</v>
-      </c>
-      <c r="W44" s="98">
+      <c r="V44" s="96">
+        <v>1</v>
+      </c>
+      <c r="W44" s="96">
         <v>0.7</v>
       </c>
-      <c r="X44" s="98">
+      <c r="X44" s="96">
         <v>0.35</v>
       </c>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="99" t="s">
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="AA44" s="99" t="s">
+      <c r="AA44" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="AD44" s="99">
+      <c r="AD44" s="97">
         <v>9100</v>
       </c>
-      <c r="AE44" s="99">
+      <c r="AE44" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF44" s="99">
+      <c r="AF44" s="97">
         <v>2</v>
       </c>
-      <c r="AG44" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH44" s="90" t="str">
+      <c r="AG44" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH44" s="88" t="str">
         <f>VLOOKUP(C44,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
-      <c r="AI44" s="100" t="s">
+      <c r="AI44" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="AJ44" s="90" t="s">
+      <c r="AJ44" s="88" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8380,7 +8401,7 @@
         <v>121</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>65</v>
@@ -8475,7 +8496,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>65</v>
@@ -8550,102 +8571,102 @@
       <c r="AI46" s="42"/>
       <c r="AJ46" s="42"/>
     </row>
-    <row r="47" spans="1:36" s="99" customFormat="1">
-      <c r="A47" s="95">
+    <row r="47" spans="1:36" s="97" customFormat="1">
+      <c r="A47" s="93">
         <v>46</v>
       </c>
-      <c r="B47" s="95">
+      <c r="B47" s="93">
         <v>46</v>
       </c>
-      <c r="C47" s="96" t="s">
-        <v>558</v>
-      </c>
-      <c r="D47" s="96" t="s">
+      <c r="C47" s="94" t="s">
+        <v>556</v>
+      </c>
+      <c r="D47" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="96" t="s">
+      <c r="E47" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="G47" s="96" t="s">
+      <c r="F47" s="94" t="s">
+        <v>573</v>
+      </c>
+      <c r="G47" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="H47" s="96" t="s">
+      <c r="H47" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="96">
+      <c r="I47" s="94">
         <v>0.74</v>
       </c>
-      <c r="J47" s="96">
+      <c r="J47" s="94">
         <v>0.86</v>
       </c>
-      <c r="K47" s="95">
+      <c r="K47" s="93">
         <v>0.8</v>
       </c>
-      <c r="L47" s="95">
+      <c r="L47" s="93">
         <v>30</v>
       </c>
-      <c r="M47" s="96">
-        <v>1</v>
-      </c>
-      <c r="N47" s="95">
+      <c r="M47" s="94">
+        <v>1</v>
+      </c>
+      <c r="N47" s="93">
         <v>400</v>
       </c>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95">
+      <c r="O47" s="93"/>
+      <c r="P47" s="93">
         <v>2</v>
       </c>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="96">
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94">
         <v>0.8</v>
       </c>
-      <c r="S47" s="98">
-        <v>1</v>
-      </c>
-      <c r="T47" s="98">
+      <c r="S47" s="96">
+        <v>1</v>
+      </c>
+      <c r="T47" s="96">
         <v>0.26</v>
       </c>
-      <c r="U47" s="96" t="s">
+      <c r="U47" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="V47" s="98">
+      <c r="V47" s="96">
         <v>0.8</v>
       </c>
-      <c r="W47" s="98">
-        <v>1</v>
-      </c>
-      <c r="X47" s="98">
+      <c r="W47" s="96">
+        <v>1</v>
+      </c>
+      <c r="X47" s="96">
         <v>0.4</v>
       </c>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="99" t="s">
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="AA47" s="99" t="s">
+      <c r="AA47" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AD47" s="99">
+      <c r="AD47" s="97">
         <v>9100</v>
       </c>
-      <c r="AE47" s="99">
+      <c r="AE47" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF47" s="99">
+      <c r="AF47" s="97">
         <v>2</v>
       </c>
-      <c r="AG47" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH47" s="90" t="str">
+      <c r="AG47" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH47" s="88" t="str">
         <f>VLOOKUP(C47,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
-      <c r="AI47" s="100" t="s">
+      <c r="AI47" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="AJ47" s="90" t="s">
+      <c r="AJ47" s="88" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8745,102 +8766,102 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="99" customFormat="1">
-      <c r="A49" s="95">
+    <row r="49" spans="1:36" s="97" customFormat="1">
+      <c r="A49" s="93">
         <v>48</v>
       </c>
-      <c r="B49" s="95">
+      <c r="B49" s="93">
         <v>48</v>
       </c>
-      <c r="C49" s="96" t="s">
-        <v>557</v>
-      </c>
-      <c r="D49" s="96" t="s">
+      <c r="C49" s="94" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="96" t="s">
+      <c r="E49" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="F49" s="96" t="s">
+      <c r="F49" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G49" s="96" t="s">
+      <c r="G49" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="H49" s="96" t="s">
+      <c r="H49" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="96">
+      <c r="I49" s="94">
         <v>2</v>
       </c>
-      <c r="J49" s="96">
+      <c r="J49" s="94">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K49" s="95">
+      <c r="K49" s="93">
         <v>0.8</v>
       </c>
-      <c r="L49" s="95">
+      <c r="L49" s="93">
         <v>30</v>
       </c>
-      <c r="M49" s="96">
-        <v>1</v>
-      </c>
-      <c r="N49" s="95">
+      <c r="M49" s="94">
+        <v>1</v>
+      </c>
+      <c r="N49" s="93">
         <v>600</v>
       </c>
-      <c r="O49" s="87"/>
-      <c r="P49" s="95">
+      <c r="O49" s="85"/>
+      <c r="P49" s="93">
         <v>3</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="96">
+      <c r="Q49" s="93"/>
+      <c r="R49" s="94">
         <v>0.66</v>
       </c>
-      <c r="S49" s="98">
-        <v>1</v>
-      </c>
-      <c r="T49" s="98">
+      <c r="S49" s="96">
+        <v>1</v>
+      </c>
+      <c r="T49" s="96">
         <v>0.22</v>
       </c>
-      <c r="U49" s="96" t="s">
+      <c r="U49" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="V49" s="98">
+      <c r="V49" s="96">
         <v>0.8</v>
       </c>
-      <c r="W49" s="98">
-        <v>1</v>
-      </c>
-      <c r="X49" s="98">
+      <c r="W49" s="96">
+        <v>1</v>
+      </c>
+      <c r="X49" s="96">
         <v>0.45</v>
       </c>
-      <c r="Y49" s="95"/>
-      <c r="Z49" s="101" t="s">
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="AA49" s="99" t="s">
+      <c r="AA49" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AD49" s="99">
+      <c r="AD49" s="97">
         <v>3000</v>
       </c>
-      <c r="AE49" s="99">
+      <c r="AE49" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF49" s="99">
+      <c r="AF49" s="97">
         <v>2</v>
       </c>
-      <c r="AG49" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH49" s="90" t="str">
+      <c r="AG49" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH49" s="88" t="str">
         <f>VLOOKUP(C49,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
-      <c r="AI49" s="100" t="s">
+      <c r="AI49" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="AJ49" s="90" t="s">
+      <c r="AJ49" s="88" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8960,7 +8981,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>65</v>
@@ -9035,500 +9056,500 @@
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="1:36" s="91" customFormat="1">
-      <c r="A52" s="95">
+    <row r="52" spans="1:36" s="89" customFormat="1">
+      <c r="A52" s="93">
         <v>51</v>
       </c>
-      <c r="B52" s="95">
+      <c r="B52" s="93">
         <v>51</v>
       </c>
-      <c r="C52" s="96" t="s">
-        <v>549</v>
-      </c>
-      <c r="D52" s="96" t="s">
-        <v>563</v>
-      </c>
-      <c r="E52" s="96" t="s">
-        <v>587</v>
-      </c>
-      <c r="F52" s="96" t="s">
-        <v>602</v>
-      </c>
-      <c r="G52" s="96" t="s">
-        <v>603</v>
-      </c>
-      <c r="H52" s="96" t="s">
+      <c r="C52" s="94" t="s">
+        <v>547</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>561</v>
+      </c>
+      <c r="E52" s="94" t="s">
+        <v>585</v>
+      </c>
+      <c r="F52" s="94" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="94" t="s">
+        <v>601</v>
+      </c>
+      <c r="H52" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="96">
+      <c r="I52" s="94">
         <v>2.64</v>
       </c>
-      <c r="J52" s="96">
+      <c r="J52" s="94">
         <v>2.38</v>
       </c>
-      <c r="K52" s="95">
+      <c r="K52" s="93">
         <v>0.8</v>
       </c>
-      <c r="L52" s="95">
+      <c r="L52" s="93">
         <v>30</v>
       </c>
-      <c r="M52" s="96">
-        <v>1</v>
-      </c>
-      <c r="N52" s="95">
+      <c r="M52" s="94">
+        <v>1</v>
+      </c>
+      <c r="N52" s="93">
         <v>200</v>
       </c>
-      <c r="O52" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P52" s="95">
+      <c r="O52" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P52" s="93">
         <v>4</v>
       </c>
-      <c r="R52" s="96">
+      <c r="R52" s="94">
         <v>0.64</v>
       </c>
-      <c r="S52" s="98">
+      <c r="S52" s="96">
         <v>0.73</v>
       </c>
-      <c r="T52" s="98">
+      <c r="T52" s="96">
         <v>0.74</v>
       </c>
-      <c r="U52" s="96" t="s">
+      <c r="U52" s="94" t="s">
         <v>309</v>
       </c>
-      <c r="V52" s="98">
-        <v>1</v>
-      </c>
-      <c r="W52" s="98">
+      <c r="V52" s="96">
+        <v>1</v>
+      </c>
+      <c r="W52" s="96">
         <v>0.8</v>
       </c>
-      <c r="X52" s="98">
+      <c r="X52" s="96">
         <v>0.1</v>
       </c>
-      <c r="Z52" s="101" t="s">
+      <c r="Z52" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="AA52" s="99" t="s">
+      <c r="AA52" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="AB52" s="99"/>
-      <c r="AD52" s="99">
+      <c r="AB52" s="97"/>
+      <c r="AD52" s="97">
         <v>3000</v>
       </c>
-      <c r="AE52" s="99">
+      <c r="AE52" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF52" s="99">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH52" s="90" t="str">
+      <c r="AF52" s="97">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH52" s="88" t="str">
         <f>VLOOKUP(C52,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
-      <c r="AI52" s="100" t="s">
+      <c r="AI52" s="98" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="91" customFormat="1">
-      <c r="A53" s="95">
+    <row r="53" spans="1:36" s="89" customFormat="1">
+      <c r="A53" s="93">
         <v>52</v>
       </c>
-      <c r="B53" s="95">
+      <c r="B53" s="93">
         <v>52</v>
       </c>
-      <c r="C53" s="96" t="s">
-        <v>556</v>
-      </c>
-      <c r="D53" s="96" t="s">
-        <v>565</v>
-      </c>
-      <c r="E53" s="96" t="s">
-        <v>596</v>
-      </c>
-      <c r="F53" s="96" t="s">
-        <v>604</v>
-      </c>
-      <c r="G53" s="96" t="s">
+      <c r="C53" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>563</v>
+      </c>
+      <c r="E53" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="F53" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="G53" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="96" t="s">
+      <c r="H53" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="96">
+      <c r="I53" s="94">
         <v>2.64</v>
       </c>
-      <c r="J53" s="96">
+      <c r="J53" s="94">
         <v>2.38</v>
       </c>
-      <c r="K53" s="95">
+      <c r="K53" s="93">
         <v>0.8</v>
       </c>
-      <c r="L53" s="95">
+      <c r="L53" s="93">
         <v>30</v>
       </c>
-      <c r="M53" s="96">
-        <v>1</v>
-      </c>
-      <c r="N53" s="95">
+      <c r="M53" s="94">
+        <v>1</v>
+      </c>
+      <c r="N53" s="93">
         <v>200</v>
       </c>
-      <c r="O53" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P53" s="95">
+      <c r="O53" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P53" s="93">
         <v>4</v>
       </c>
-      <c r="R53" s="96">
+      <c r="R53" s="94">
         <v>0.64</v>
       </c>
-      <c r="S53" s="98">
+      <c r="S53" s="96">
         <v>0.73</v>
       </c>
-      <c r="T53" s="98">
+      <c r="T53" s="96">
         <v>0.74</v>
       </c>
-      <c r="U53" s="96" t="s">
+      <c r="U53" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="V53" s="98">
-        <v>1</v>
-      </c>
-      <c r="W53" s="98">
+      <c r="V53" s="96">
+        <v>1</v>
+      </c>
+      <c r="W53" s="96">
         <v>0.8</v>
       </c>
-      <c r="X53" s="98">
+      <c r="X53" s="96">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="101" t="s">
+      <c r="Z53" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="AA53" s="99" t="s">
+      <c r="AA53" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="AB53" s="99"/>
-      <c r="AD53" s="99">
+      <c r="AB53" s="97"/>
+      <c r="AD53" s="97">
         <v>9200</v>
       </c>
-      <c r="AE53" s="99">
+      <c r="AE53" s="97">
         <v>1.5</v>
       </c>
-      <c r="AF53" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH53" s="90" t="str">
+      <c r="AF53" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH53" s="88" t="str">
         <f>VLOOKUP(C53,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
-      <c r="AI53" s="100" t="s">
+      <c r="AI53" s="98" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="91" customFormat="1">
-      <c r="A54" s="84">
+    <row r="54" spans="1:36" s="89" customFormat="1">
+      <c r="A54" s="82">
         <v>53</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="82">
         <v>53</v>
       </c>
-      <c r="C54" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="E54" s="96" t="s">
-        <v>597</v>
-      </c>
-      <c r="F54" s="96" t="s">
+      <c r="C54" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>565</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>595</v>
+      </c>
+      <c r="F54" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="85" t="s">
+      <c r="G54" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="96" t="s">
-        <v>561</v>
-      </c>
-      <c r="I54" s="85">
+      <c r="H54" s="94" t="s">
+        <v>559</v>
+      </c>
+      <c r="I54" s="83">
         <v>0.96</v>
       </c>
-      <c r="J54" s="85">
+      <c r="J54" s="83">
         <v>0.68</v>
       </c>
-      <c r="K54" s="84">
+      <c r="K54" s="82">
         <v>0.8</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="82">
         <v>30</v>
       </c>
-      <c r="M54" s="86">
-        <v>1</v>
-      </c>
-      <c r="N54" s="84">
+      <c r="M54" s="84">
+        <v>1</v>
+      </c>
+      <c r="N54" s="82">
         <v>200</v>
       </c>
-      <c r="O54" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P54" s="84">
+      <c r="O54" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P54" s="82">
         <v>3</v>
       </c>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="85">
+      <c r="Q54" s="82"/>
+      <c r="R54" s="83">
         <v>0.7</v>
       </c>
-      <c r="S54" s="88">
-        <v>1</v>
-      </c>
-      <c r="T54" s="88">
+      <c r="S54" s="86">
+        <v>1</v>
+      </c>
+      <c r="T54" s="86">
         <v>0.8</v>
       </c>
-      <c r="U54" s="85" t="s">
+      <c r="U54" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V54" s="88">
+      <c r="V54" s="86">
         <v>0.7</v>
       </c>
-      <c r="W54" s="88">
-        <v>1</v>
-      </c>
-      <c r="X54" s="88">
+      <c r="W54" s="86">
+        <v>1</v>
+      </c>
+      <c r="X54" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="90" t="s">
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AA54" s="90" t="s">
+      <c r="AA54" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AD54" s="91">
+      <c r="AD54" s="89">
         <v>3000</v>
       </c>
-      <c r="AE54" s="91">
+      <c r="AE54" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF54" s="91">
+      <c r="AF54" s="89">
         <v>2</v>
       </c>
-      <c r="AG54" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH54" s="90" t="str">
+      <c r="AG54" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH54" s="88" t="str">
         <f>VLOOKUP(C54,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
-      <c r="AI54" s="100" t="s">
+      <c r="AI54" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="AJ54" s="90" t="s">
+      <c r="AJ54" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="91" customFormat="1">
-      <c r="A55" s="84">
+    <row r="55" spans="1:36" s="89" customFormat="1">
+      <c r="A55" s="82">
         <v>54</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="82">
         <v>54</v>
       </c>
-      <c r="C55" s="85" t="s">
-        <v>605</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>568</v>
-      </c>
-      <c r="E55" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="F55" s="96" t="s">
+      <c r="C55" s="83" t="s">
+        <v>603</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>566</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="F55" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="85" t="s">
+      <c r="G55" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="96" t="s">
-        <v>562</v>
-      </c>
-      <c r="I55" s="85">
+      <c r="H55" s="94" t="s">
+        <v>560</v>
+      </c>
+      <c r="I55" s="83">
         <v>1.53</v>
       </c>
-      <c r="J55" s="85">
+      <c r="J55" s="83">
         <v>1.48</v>
       </c>
-      <c r="K55" s="84">
+      <c r="K55" s="82">
         <v>0.8</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="82">
         <v>30</v>
       </c>
-      <c r="M55" s="86">
-        <v>1</v>
-      </c>
-      <c r="N55" s="84">
+      <c r="M55" s="84">
+        <v>1</v>
+      </c>
+      <c r="N55" s="82">
         <v>200</v>
       </c>
-      <c r="O55" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P55" s="84">
+      <c r="O55" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P55" s="82">
         <v>4</v>
       </c>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="85">
+      <c r="Q55" s="82"/>
+      <c r="R55" s="83">
         <v>0.7</v>
       </c>
-      <c r="S55" s="88">
-        <v>1</v>
-      </c>
-      <c r="T55" s="88">
+      <c r="S55" s="86">
+        <v>1</v>
+      </c>
+      <c r="T55" s="86">
         <v>0.6</v>
       </c>
-      <c r="U55" s="85" t="s">
+      <c r="U55" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V55" s="88">
+      <c r="V55" s="86">
         <v>0.7</v>
       </c>
-      <c r="W55" s="88">
-        <v>1</v>
-      </c>
-      <c r="X55" s="88">
+      <c r="W55" s="86">
+        <v>1</v>
+      </c>
+      <c r="X55" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="90" t="s">
+      <c r="Y55" s="82"/>
+      <c r="Z55" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA55" s="90" t="s">
+      <c r="AA55" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="91">
+      <c r="AD55" s="89">
         <v>3000</v>
       </c>
-      <c r="AE55" s="91">
+      <c r="AE55" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF55" s="91">
+      <c r="AF55" s="89">
         <v>2</v>
       </c>
-      <c r="AG55" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH55" s="90" t="str">
+      <c r="AG55" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH55" s="88" t="str">
         <f>VLOOKUP(C55,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
-      <c r="AI55" s="100" t="s">
+      <c r="AI55" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="AJ55" s="90" t="s">
+      <c r="AJ55" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="91" customFormat="1">
-      <c r="A56" s="84">
+    <row r="56" spans="1:36" s="89" customFormat="1">
+      <c r="A56" s="82">
         <v>55</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="82">
         <v>55</v>
       </c>
-      <c r="C56" s="85" t="s">
-        <v>552</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>564</v>
-      </c>
-      <c r="E56" s="85" t="s">
-        <v>599</v>
-      </c>
-      <c r="F56" s="96" t="s">
+      <c r="C56" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" s="83" t="s">
+        <v>562</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>597</v>
+      </c>
+      <c r="F56" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="96" t="s">
+      <c r="G56" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="H56" s="96" t="s">
-        <v>561</v>
-      </c>
-      <c r="I56" s="85">
+      <c r="H56" s="94" t="s">
+        <v>559</v>
+      </c>
+      <c r="I56" s="83">
         <v>1.53</v>
       </c>
-      <c r="J56" s="85">
+      <c r="J56" s="83">
         <v>1.48</v>
       </c>
-      <c r="K56" s="84">
+      <c r="K56" s="82">
         <v>0.8</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="82">
         <v>30</v>
       </c>
-      <c r="M56" s="86">
-        <v>1</v>
-      </c>
-      <c r="N56" s="84">
+      <c r="M56" s="84">
+        <v>1</v>
+      </c>
+      <c r="N56" s="82">
         <v>200</v>
       </c>
-      <c r="O56" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="P56" s="84">
+      <c r="O56" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="P56" s="82">
         <v>4</v>
       </c>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="85">
+      <c r="Q56" s="82"/>
+      <c r="R56" s="83">
         <v>0.7</v>
       </c>
-      <c r="S56" s="88">
-        <v>1</v>
-      </c>
-      <c r="T56" s="88">
+      <c r="S56" s="86">
+        <v>1</v>
+      </c>
+      <c r="T56" s="86">
         <v>0.6</v>
       </c>
-      <c r="U56" s="85" t="s">
+      <c r="U56" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V56" s="88">
+      <c r="V56" s="86">
         <v>1.4</v>
       </c>
-      <c r="W56" s="88">
-        <v>1</v>
-      </c>
-      <c r="X56" s="88">
+      <c r="W56" s="86">
+        <v>1</v>
+      </c>
+      <c r="X56" s="86">
         <v>0.35</v>
       </c>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="90" t="s">
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AA56" s="90" t="s">
+      <c r="AA56" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AD56" s="91">
+      <c r="AD56" s="89">
         <v>3000</v>
       </c>
-      <c r="AE56" s="91">
+      <c r="AE56" s="89">
         <v>1.5</v>
       </c>
-      <c r="AF56" s="91">
+      <c r="AF56" s="89">
         <v>2</v>
       </c>
-      <c r="AG56" s="91" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH56" s="90" t="str">
+      <c r="AG56" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH56" s="88" t="str">
         <f>VLOOKUP(C56,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
-      <c r="AI56" s="100" t="s">
+      <c r="AI56" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="AJ56" s="90" t="s">
+      <c r="AJ56" s="88" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9549,7 +9570,7 @@
         <v>48</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G57" s="72" t="s">
         <v>248</v>
@@ -9965,93 +9986,93 @@
       </c>
       <c r="AH61" s="75"/>
     </row>
-    <row r="62" spans="1:36" s="71" customFormat="1" ht="16.5">
-      <c r="A62" s="77">
+    <row r="62" spans="1:36" s="104" customFormat="1" ht="16.5">
+      <c r="A62" s="101">
         <v>61</v>
       </c>
-      <c r="B62" s="77">
+      <c r="B62" s="101">
         <v>61</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="102" t="s">
+        <v>616</v>
+      </c>
+      <c r="D62" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E62" s="102" t="s">
+        <v>617</v>
+      </c>
+      <c r="F62" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" s="102">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="102">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="101">
+        <v>1</v>
+      </c>
+      <c r="L62" s="101">
+        <v>30</v>
+      </c>
+      <c r="M62" s="102">
+        <v>1</v>
+      </c>
+      <c r="N62" s="101">
+        <v>0</v>
+      </c>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101">
+        <v>4</v>
+      </c>
+      <c r="R62" s="102">
+        <v>0.64</v>
+      </c>
+      <c r="S62" s="105">
+        <v>0.73</v>
+      </c>
+      <c r="T62" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="U62" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="V62" s="105">
+        <v>1</v>
+      </c>
+      <c r="W62" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="X62" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="104" t="s">
         <v>346</v>
       </c>
-      <c r="D62" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="E62" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="F62" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G62" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="H62" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62" s="78">
-        <v>2.64</v>
-      </c>
-      <c r="J62" s="78">
-        <v>2.38</v>
-      </c>
-      <c r="K62" s="77">
-        <v>1</v>
-      </c>
-      <c r="L62" s="77">
-        <v>30</v>
-      </c>
-      <c r="M62" s="78">
-        <v>1</v>
-      </c>
-      <c r="N62" s="77">
-        <v>0</v>
-      </c>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77">
-        <v>4</v>
-      </c>
-      <c r="R62" s="78">
-        <v>0.64</v>
-      </c>
-      <c r="S62" s="79">
-        <v>0.73</v>
-      </c>
-      <c r="T62" s="79">
-        <v>0.74</v>
-      </c>
-      <c r="U62" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="V62" s="79">
-        <v>1</v>
-      </c>
-      <c r="W62" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="X62" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="Y62" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z62" s="83" t="s">
+      <c r="Z62" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="AA62" s="77" t="s">
+      <c r="AA62" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AB62" s="77">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="77">
+      <c r="AB62" s="101">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="101">
         <v>1000</v>
       </c>
-      <c r="AE62" s="77">
+      <c r="AE62" s="101">
         <v>1.5</v>
       </c>
-      <c r="AH62" s="75"/>
+      <c r="AH62" s="107"/>
     </row>
     <row r="63" spans="1:36">
       <c r="E63" s="12"/>
@@ -10100,42 +10121,42 @@
     <row r="2" spans="3:9">
       <c r="C2" s="55"/>
       <c r="D2" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F2" s="8" t="str">
         <f>CONCATENATE($H$2,I2)</f>
         <v>fish3dnode/fish3d/fish/boat 1/body</v>
       </c>
-      <c r="H2" s="102" t="s">
-        <v>572</v>
+      <c r="H2" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="59"/>
       <c r="D3" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>CONCATENATE($H$2,I3)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="55"/>
       <c r="D4" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
@@ -10145,45 +10166,45 @@
         <v>fish3dnode/fish3d/fish/CT/body004</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="55"/>
       <c r="D5" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="55"/>
       <c r="D7" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -10193,13 +10214,13 @@
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="55"/>
       <c r="D8" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>109</v>
@@ -10209,29 +10230,29 @@
         <v>fish3dnode/fish3d/fish/DHZ/body</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="59"/>
       <c r="D9" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="55"/>
       <c r="D10" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>104</v>
@@ -10241,45 +10262,45 @@
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="55"/>
       <c r="D11" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eel/Box005</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Egg/Egg_Body</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="55"/>
       <c r="D13" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>112</v>
@@ -10289,13 +10310,13 @@
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="55"/>
       <c r="D14" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>113</v>
@@ -10305,45 +10326,45 @@
         <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="55"/>
       <c r="D17" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>114</v>
@@ -10353,13 +10374,13 @@
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="55"/>
       <c r="D18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>44</v>
@@ -10369,13 +10390,13 @@
         <v>fish3dnode/fish3d/fish/Haima/Haima_Body</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="55"/>
       <c r="D19" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>48</v>
@@ -10385,13 +10406,13 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="59"/>
       <c r="D20" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>41</v>
@@ -10401,29 +10422,29 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="55"/>
       <c r="D21" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="55"/>
       <c r="D22" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>59</v>
@@ -10433,29 +10454,29 @@
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="55"/>
       <c r="D23" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="55"/>
       <c r="D24" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>89</v>
@@ -10465,13 +10486,13 @@
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="55"/>
       <c r="D25" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>117</v>
@@ -10481,13 +10502,13 @@
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="55"/>
       <c r="D26" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>118</v>
@@ -10497,45 +10518,45 @@
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="55"/>
       <c r="D27" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="55"/>
       <c r="D28" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jijuxie 1/Bone00/Bone04/Bone27/Bone28/Bone048/Bone30/Jijuxie_Body</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="55"/>
       <c r="D29" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>182</v>
@@ -10545,13 +10566,13 @@
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="55"/>
       <c r="D30" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
@@ -10561,13 +10582,13 @@
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="55"/>
       <c r="D31" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
@@ -10577,13 +10598,13 @@
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="55"/>
       <c r="D32" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>229</v>
@@ -10593,61 +10614,61 @@
         <v>fish3dnode/fish3d/fish/Leishenxie/Liehsenxie_Body</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="55"/>
       <c r="D33" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="55"/>
       <c r="D34" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="55"/>
       <c r="D35" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="55"/>
       <c r="D36" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>166</v>
@@ -10657,29 +10678,29 @@
         <v>fish3dnode/fish3d/fish/MidAutumn/body</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="55"/>
       <c r="D37" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Paoshenxie/pangxie</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="55"/>
       <c r="D38" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>75</v>
@@ -10689,77 +10710,77 @@
         <v>fish3dnode/fish3d/fish/Renzhegui/renzhegui 1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="55"/>
       <c r="D39" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shanbei/ShanBei_body</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="55"/>
       <c r="D40" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shenxianyu/Shenxianyu_Body</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="55"/>
       <c r="D41" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="55"/>
       <c r="D42" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="69"/>
       <c r="D43" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>122</v>
@@ -10769,45 +10790,45 @@
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="55"/>
       <c r="D44" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="69"/>
       <c r="D45" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="69"/>
       <c r="D46" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>91</v>
@@ -10817,13 +10838,13 @@
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="70"/>
       <c r="D47" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>156</v>
@@ -10833,13 +10854,13 @@
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="55"/>
       <c r="D48" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>154</v>
@@ -10849,29 +10870,29 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="55"/>
       <c r="D49" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="55"/>
       <c r="D50" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>181</v>
@@ -10881,13 +10902,13 @@
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="70"/>
       <c r="D51" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>163</v>
@@ -10897,13 +10918,13 @@
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="55"/>
       <c r="D52" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>306</v>
@@ -10913,61 +10934,61 @@
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="70"/>
       <c r="D53" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="59"/>
       <c r="D54" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="59"/>
       <c r="D55" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="59"/>
       <c r="D56" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>44</v>
@@ -10977,13 +10998,13 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="59"/>
       <c r="D57" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>48</v>
@@ -10993,77 +11014,77 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="70"/>
       <c r="D58" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="70"/>
       <c r="D59" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="70"/>
       <c r="D60" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" s="50" t="s">
         <v>470</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>472</v>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="70"/>
       <c r="D61" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="70"/>
       <c r="D62" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E62" s="50"/>
       <c r="F62" s="8" t="str">
@@ -11071,13 +11092,13 @@
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="70"/>
       <c r="D63" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="8" t="str">
@@ -11085,20 +11106,20 @@
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="70"/>
       <c r="D64" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="4:7">
@@ -11107,38 +11128,38 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="4:7">
       <c r="D66" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="D67" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="4:7">
       <c r="D68" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G68" s="9"/>
     </row>
@@ -11147,13 +11168,13 @@
         <v>127</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="4:7">
       <c r="D70" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>100</v>
@@ -11180,10 +11201,10 @@
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -11210,26 +11231,26 @@
         <v>131</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="D78" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>100</v>
@@ -11241,7 +11262,7 @@
         <v>132</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G79" s="9"/>
     </row>
@@ -11250,7 +11271,7 @@
         <v>133</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G80" s="58"/>
     </row>
@@ -11275,10 +11296,10 @@
         <v>142</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="4:7">
@@ -11290,7 +11311,7 @@
     </row>
     <row r="85" spans="4:7">
       <c r="D85" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>143</v>
@@ -11305,7 +11326,7 @@
         <v>94</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="4:7">
@@ -11319,7 +11340,7 @@
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -11329,10 +11350,10 @@
         <v>98</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="4:7">
@@ -11346,10 +11367,10 @@
     </row>
     <row r="91" spans="4:7">
       <c r="D91" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G91" s="27"/>
     </row>
@@ -11369,31 +11390,31 @@
     </row>
     <row r="94" spans="4:7">
       <c r="D94" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
     </row>
     <row r="95" spans="4:7">
       <c r="D95" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
     </row>
     <row r="96" spans="4:7">
       <c r="D96" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
     </row>
     <row r="97" spans="4:7">
       <c r="D97" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G97" s="27"/>
     </row>
@@ -11408,13 +11429,13 @@
     </row>
     <row r="99" spans="4:7">
       <c r="D99" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="4:7">
@@ -11422,7 +11443,7 @@
         <v>139</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G100" s="47"/>
     </row>
@@ -11438,10 +11459,10 @@
         <v>99</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="4:7">
@@ -11456,34 +11477,34 @@
         <v>176</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="4:7">
       <c r="D105" s="39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G105" s="41"/>
     </row>
     <row r="106" spans="4:7">
       <c r="D106" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G106" s="36"/>
     </row>
     <row r="107" spans="4:7">
       <c r="D107" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G107" s="41"/>
     </row>
@@ -11492,7 +11513,7 @@
         <v>88</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G108" s="41"/>
     </row>
@@ -11504,7 +11525,7 @@
         <v>144</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="4:7">
@@ -11512,13 +11533,13 @@
         <v>172</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G110" s="14"/>
     </row>
     <row r="111" spans="4:7">
       <c r="D111" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>95</v>
@@ -11527,7 +11548,7 @@
     </row>
     <row r="112" spans="4:7">
       <c r="D112" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>167</v>
@@ -11536,7 +11557,7 @@
     </row>
     <row r="113" spans="4:7">
       <c r="D113" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -11550,18 +11571,18 @@
     </row>
     <row r="115" spans="4:7">
       <c r="D115" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="4:7">
       <c r="D116" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117" spans="4:7">
@@ -11575,7 +11596,7 @@
     </row>
     <row r="118" spans="4:7">
       <c r="D118" s="56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F118" s="57" t="s">
         <v>145</v>
@@ -11584,10 +11605,10 @@
     </row>
     <row r="119" spans="4:7">
       <c r="D119" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G119" s="27"/>
     </row>
@@ -11598,14 +11619,14 @@
     </row>
     <row r="121" spans="4:7">
       <c r="D121" s="50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F121" s="51"/>
       <c r="G121" s="51"/>
     </row>
     <row r="122" spans="4:7">
       <c r="D122" s="50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
@@ -11619,147 +11640,147 @@
     </row>
     <row r="124" spans="4:7">
       <c r="D124" s="50" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="85" t="s">
+      <c r="E143" s="83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="83" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="83" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="83" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="94" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="94" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="94" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="83" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="83" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="83" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="83" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="83" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="83" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="94" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="E161" s="83" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="85" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="85" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="85" t="s">
+    <row r="162" spans="2:5">
+      <c r="E162" s="83" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="E163" s="83" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="94" t="s">
+        <v>543</v>
+      </c>
+      <c r="E164" s="83" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="96" t="s">
+    <row r="165" spans="2:5">
+      <c r="E165" s="83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="E166" s="94" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="96" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="96" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" s="85" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" s="85" t="s">
+    <row r="167" spans="2:5">
+      <c r="E167" s="83" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="E168" s="83" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="85" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="85" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
-      <c r="E155" s="85" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="85" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5">
-      <c r="E157" s="85" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5">
-      <c r="E158" s="85" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="85" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" s="96" t="s">
+    <row r="169" spans="2:5">
+      <c r="E169" s="94" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="E161" s="85" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="E162" s="85" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="E163" s="85" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="96" t="s">
-        <v>545</v>
-      </c>
-      <c r="E164" s="85" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="E165" s="85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="E166" s="96" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="E167" s="85" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="E168" s="85" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="E169" s="96" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
